--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -2,13 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr codeName="DieseArbeitsmappe"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE4E335-B460-4989-AF51-FB8A807AC437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileSharing readOnlyRecommended="1"/>
+  <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16275A-DFB4-4F55-9784-C0892031248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,6 +216,3047 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.16453506645337448"/>
+          <c:y val="0.21664518341740857"/>
+          <c:w val="0.76964903438840182"/>
+          <c:h val="8.3198869372097722E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Datenreihe 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E8DB6FC0-CC0F-45BD-AD4F-BB7541E617A8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BCC7EF4F-90EA-4852-84E7-73DC620F1B61}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DCFF78F2-54BE-47EF-B307-A0FD0041890D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C4FF401-2466-43A1-AD2B-EAB0509FBFD7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B8D08383-2C04-4FBF-A023-A00174905EF9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CA0FF4AC-CD3B-4894-BF8A-8CEE54F6D478}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{41460ADA-96CC-4918-B7C3-DD2D93CA0649}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ACDA25A1-DE46-45E3-A8B7-C0AC613F0D3C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C33C8E8E-A27D-4A02-BCDA-0A0012D0AAF8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F809387-F26C-4505-853F-9DB5148C9314}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{356D7F7D-EAD8-438F-B1BB-7C8856A2FEBF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F05235D5-B8B5-4240-BF88-FBE6B8679DFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CE606FD9-BAD1-4117-980A-0615480A74B8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ABA6595F-40BB-4467-8C0B-70075D128302}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85773FA9-F33A-4179-8C54-C0F2CFF9E70D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{236B3767-EC6F-48D6-9DD3-3B26F8625F0E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{068F1DD2-0912-4279-83A9-DD6A3E4D32B4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{11BAAA5F-9BF6-4803-B8CE-BC2FFF069B85}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{423AD83E-98C1-4F38-93D9-F1F3BE2A6AFF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{462A7C91-407C-43D6-9C4D-931F46EA83C0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A89EEA87-801A-4588-85F2-603063829F7B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{08C4DFEB-7FA7-451F-8606-7C159DB97B55}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{49F707AC-0475-4BDF-B5BB-E9CB335AB59F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F2D2861-3539-4E5C-8A10-7D38626768C2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1B35CF92-20D3-4A38-81F0-EE954311EC07}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1FE399B2-374E-47FA-8AD7-A34775026BDE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AB2B5E5-B6BE-4995-8630-E5CDBFB5C341}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A215D074-0258-45F5-9E35-084C2501D371}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8C6D87E4-C48C-47EA-90F9-049506677A5D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AE5A3409-7746-47A1-9355-915773A96803}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C9F55CA4-B830-4A3E-ABF3-A3B72BFB1811}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{80EB41F3-057F-4B83-807F-8F8100F0CDE2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27300754-C53A-400C-B733-B38406C23387}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FC5878D2-4397-4EFA-9D56-4B9AAFCCF1E9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3948A177-5216-42B6-AE72-8E24279BCAA8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E567E5E-7876-4BD6-9752-CD891B1A3FCF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6EB9FC22-5AB7-4A5A-B856-8F9B431D5FCA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{81BFD206-BED9-4912-B683-C1E981475F39}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{72FA3FD2-4C1A-45D7-BC2B-9AC4C5E691BB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{223F1CC8-C70E-4487-A4E8-CDAE86FF9FBD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EA60BB6A-34C9-4267-8604-5188E1C8D26F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3E94F4F-CAC9-4246-87FB-38719AEF1584}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A6722AF-089F-4721-9D35-C9859CF97306}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F3BAA8E6-A900-4CBC-9E9A-B702A7A5F920}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8CDE1440-B3FF-466B-8EF0-96208D389AD4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{70BEC55F-EECF-4D8A-9E5B-C5EBA6766DC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{192EA8BB-85F3-4A42-A0F9-B10EC475E251}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{385A2A9D-DB0F-4359-9C8E-D495F69F62EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{824E36F8-015C-4252-98F8-DF7E7CF69387}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3AFB95D0-476F-4FB6-AC38-DEF55CDF72DF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{40B94D3E-5B70-4B3C-A6AE-677A3569E31D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{25F89B7E-B43A-48ED-8518-B95F06754188}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50D9661E-69D9-4FF9-A03D-B75029ADCF2C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0817973B-10E3-49B6-A017-BFA15E7E0DFF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{29550A14-F0B5-474D-8DD4-9BED7B05725C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AC819FE5-311C-4D31-BD65-D9EC1E2A261C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D78A3511-332A-4F65-ABBD-E79028C809A2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BA67C1FD-DBCC-4361-9B89-D9FCCEDF8127}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{734F8559-B5A9-42A1-83AD-0212D49AE2F4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C9E86947-EF7F-4F14-A51F-55FE1A249AB0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{68499D97-F3C4-4CF9-BFF3-8BC82C67AF00}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CC03E740-4B91-4A4B-A136-F6A1AB49A233}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3C44C672-76AB-4553-9229-A3DFDC0A3C4F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F51A6B25-4275-4876-A9F3-650D2033F379}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45110</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Kalenderwoche!$B:$B</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1048576"/>
+                  <c:pt idx="0">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>32</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592549576"/>
+        <c:axId val="592543672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592549576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45145"/>
+          <c:min val="44704"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592543672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592543672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592549576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
+</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.15389110151355403"/>
           <c:y val="0.26935721737142204"/>
           <c:w val="0.76880987199768602"/>
@@ -536,7 +3573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A2ACFC6-4FF3-4692-ADAE-B4BEBC065FF8}" type="CELLRANGE">
+                    <a:fld id="{137DF5F6-26E0-4065-ABC1-B77FEF387AD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -569,7 +3606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7017335F-78AC-43A6-B1FE-4DCACF7B5622}" type="CELLRANGE">
+                    <a:fld id="{36911218-3EF9-46BC-98EF-F60277634806}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -602,7 +3639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{709087C8-3811-45CD-9D7C-12D23E2FBE99}" type="CELLRANGE">
+                    <a:fld id="{40DC5219-DAA1-4F09-9F91-AA0AE7A484AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -661,7 +3698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A7A08CB-7A4F-4905-91B8-B91F1DA7004B}" type="CELLRANGE">
+                    <a:fld id="{92A4C467-3877-4265-BF54-609ECD574C14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -720,7 +3757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9A1BFC2-E58E-4A5C-8410-BB12A69B7730}" type="CELLRANGE">
+                    <a:fld id="{88DD301B-F404-4FD0-808E-6BAEBC779D4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -779,7 +3816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04751135-E152-4B30-B633-C5BD949E611E}" type="CELLRANGE">
+                    <a:fld id="{DC823CA1-E35E-4B7F-B46D-7334E63BC8F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -838,7 +3875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E406A854-FD97-421B-BD8A-13CFA8923338}" type="CELLRANGE">
+                    <a:fld id="{19F149B8-D7CA-4E8C-9D42-FB42126C3563}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1056,7 +4093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BEF3FB2-9A2A-47C6-9AA9-2FF8A30E1107}" type="CELLRANGE">
+                    <a:fld id="{9C0E46A6-E8A0-4D3B-9E86-EFB5284A69E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1090,7 +4127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2794EEF-1293-4C05-861F-DD348F4A7700}" type="CELLRANGE">
+                    <a:fld id="{6A74CA14-9F9C-41B0-BFAB-05CF57B97D2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1124,7 +4161,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2302FA8-D370-49FC-B4C1-303F19476234}" type="CELLRANGE">
+                    <a:fld id="{E2937D57-EAAA-417A-9ECF-56994C1964BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1191,7 +4228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9747843A-E80F-4177-A84F-D7477AB2803B}" type="CELLRANGE">
+                    <a:fld id="{B9F8F406-0198-4F0C-8651-2164E4D3826A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1309,7 +4346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{215DC337-E6B2-4739-857B-EE9C523FB0DE}" type="CELLRANGE">
+                    <a:fld id="{7D3E0189-6020-475F-9941-5C2BFD3FA8DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1370,7 +4407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FFFA83B-8024-4CFE-9D09-2DDC173C2118}" type="CELLRANGE">
+                    <a:fld id="{F06C98C1-0C9A-48FE-8651-39C8DA825AA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1957,7 +4994,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1991,7 +5028,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Heute</c:v>
+            <c:strRef>
+              <c:f>Milestones!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HEUTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
@@ -2002,13 +5047,58 @@
             <c:symbol val="diamond"/>
             <c:size val="12"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8958F28F-38DD-4EC7-8F2F-8EF44D7233D6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{AFF8918C-08E2-4246-ABD0-9DF344D70AFF}" type="SERIESNAME">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[DATENREIHENNAME]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9C35-48AE-8955-D9966A0B2323}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
               <c:tx>
@@ -2028,14 +5118,14 @@
               <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
+                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-6A30-4E2D-9FB7-639EF202CB49}"/>
@@ -2081,13 +5171,14 @@
             <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2114,7 +5205,7 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="75000"/>
@@ -2135,7 +5226,6 @@
                   <c:v>44708</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -2148,130 +5238,29 @@
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Milestones!$B$2</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>27.05.2022</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{000000E0-A366-4057-AC63-256D95433291}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Milestones!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Design Freeze</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:ln w="50800"/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="minus"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="1"/>
-            <c:val val="100"/>
-            <c:spPr>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Milestones!$B$1</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>44857</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst/>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Milestones!$C$1</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>97.5</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C8EB-4EF1-B498-67ADCF44D060}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Milestones!$A$3</c:f>
@@ -2366,7 +5355,6 @@
                   <c:v>45139</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -2379,7 +5367,6 @@
                   <c:v>97.5</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2389,9 +5376,119 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Milestones!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Design Freeze</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Milestones!$B$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Milestones!$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C35-48AE-8955-D9966A0B2323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="b"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2399,2101 +5496,7 @@
         </c:dLbls>
         <c:axId val="334558000"/>
         <c:axId val="334558328"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>Kalenderwoche</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050">
-                    <a:noFill/>
-                  </a:ln>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="9"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:dLbl>
-                    <c:idx val="0"/>
-                    <c:delete val="1"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000F-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="1"/>
-                    <c:delete val="1"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000D-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="2"/>
-                    <c:delete val="1"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000011-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="3"/>
-                    <c:delete val="1"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000012-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="4"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000013-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="5"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000014-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="6"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000015-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="7"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000016-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="8"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000017-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="9"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000018-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="10"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000019-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="11"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000001A-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="12"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000001B-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="13"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000001C-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="14"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000001D-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="15"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000001E-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="16"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000001F-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="17"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000020-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="18"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000021-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="19"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000022-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="20"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000023-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="21"/>
-                    <c:delete val="1"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000024-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="22"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000025-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="23"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000026-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="24"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000027-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="25"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000028-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="26"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000029-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="27"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000002A-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="28"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000002B-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="29"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000002C-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="30"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000002D-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="31"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000002E-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="32"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000002F-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="33"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000030-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="34"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000031-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="35"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000032-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="36"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000033-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="37"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000034-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="38"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000035-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="39"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000036-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="40"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000037-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="41"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000038-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="42"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000039-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="43"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000003A-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="44"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000003B-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="45"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000003C-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="46"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000003D-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="47"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000003E-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="48"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000003F-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="49"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000040-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="50"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000041-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="51"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000042-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="52"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000043-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="53"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000044-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="54"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000045-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="55"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000046-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="56"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000047-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="57"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000048-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="58"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000049-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="59"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000004A-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="60"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000004B-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="61"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000004C-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:dLbl>
-                    <c:idx val="62"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:endParaRPr lang="en-US"/>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:dLblPos val="b"/>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="0"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000004D-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c:dLbl>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr/>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="b"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="0"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showDataLabelsRange val="1"/>
-                      <c15:showLeaderLines val="1"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Kalenderwoche!$A$1:$A$2,Kalenderwoche!$A$4:$A$64)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="63"/>
-                      <c:pt idx="0">
-                        <c:v>44704</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>44711</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>44725</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>44732</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>44739</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>44746</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>44753</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>44760</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>44767</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>44774</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>44781</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>44788</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>44795</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>44802</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>44809</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44816</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>44823</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>44830</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>44837</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>44844</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>44851</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>44858</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>44865</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>44872</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>44879</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>44886</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>44893</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>44900</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>44907</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>44914</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>44921</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>44928</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>44935</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>44942</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>44949</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>44956</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>44963</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>44970</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>44977</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>44984</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>44991</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>44998</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>45005</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>45012</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>45019</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>45026</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>45033</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>45040</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>45047</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>45054</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>45061</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>45068</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>45075</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>45082</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>45089</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>45096</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>45103</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>45110</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>45117</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>45124</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>45131</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>45138</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>45145</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Kalenderwoche!$C$1:$C$2,Kalenderwoche!$C$4:$C$1048576)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048575"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000C-BCC2-432D-9A4D-51CBAB9291F4}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="334558000"/>
@@ -4608,3047 +5611,6 @@
     </c:headerFooter>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16453506645337448"/>
-          <c:y val="0.21664518341740857"/>
-          <c:w val="0.76964903438840182"/>
-          <c:h val="8.3198869372097722E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Datenreihe 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{49C7853F-3296-40B8-BB42-6A4FB46CE975}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E6257CB6-DCE8-474B-9DC7-9BC874C0424D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BDFA41BB-7690-4AA9-BD14-6C7429830CFE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{610EE111-9F16-4F2D-8B18-1D29CC14708A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FF275519-3733-4CD6-B843-15D1AA38BB34}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4916998E-0A97-45FD-BA26-C15D068281C5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{68424029-BB93-4B67-9E83-B5B3D4B6D1AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2D591F24-749A-4D3E-9934-67A36BD71E0D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1F7CE4FB-A740-43E3-83C4-86309C1763FB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4A969F9A-C91A-4E39-B033-535067A3BFAC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{032D18AA-C8E0-473F-84C3-4BF38F035E47}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E13C88CA-D3C0-4892-9D1F-B4D8C4C6DAAA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{50D5F657-151C-4144-A126-987FEFFA1DC2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DF794AE5-AAAA-4AE2-BA4A-83C8F328E431}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CCE9E437-43E1-4BE9-ADAE-02EA7BF52753}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{53366404-F8B6-4BF8-B6B8-56594723A7F9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DA2BFC70-A876-43A0-A306-7E7B2ECCA8A7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FD797C18-DD4C-426E-A837-A3AA692AF9AA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EB3794D4-5F11-4C34-A3BD-291B87CAE368}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A03961FC-AA58-4133-A7D8-2BA1392FB9A5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5CCD22C5-B9CC-4F9A-BCC6-A6C33903A706}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F40724C5-CC41-4A18-8391-9C2B8AA6DF77}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{928A1E3F-D6B0-4F74-AFD5-4DCBA0F285AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2CAB2B08-5A1D-419B-B46B-A61E38E2DDB8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E1210E33-B359-4870-9CC2-116A5EE3A0F7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{55A399C4-468C-447A-9E85-4B509195D454}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{736D2107-F59E-4702-82D1-BB303512AE40}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{80021B7F-B1DA-4E7B-83E7-534C1B47FF67}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7B61483B-DB98-44F2-8AAC-A7BB21F8C7DA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5E615432-140D-4068-A1F2-DBEA5B3C2F81}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CA9AB483-E249-4B47-9410-968DE76A8665}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{49C858D0-BCE4-4A54-8445-45FC6337EBFC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{585308D4-D847-40ED-AB52-389BB0981755}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{035C2857-2B60-4947-9FA2-9E5A20583792}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{50ACA489-8BA4-4B69-8956-A3346499549C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{73EC8AEA-487C-4991-B40C-7857C39645DC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{54797933-69EA-4C62-997C-79D8B2D434B9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FFC86D0B-12D4-4E52-AE47-AF55455B0CFB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B5E0C8D1-EE28-4B5A-919F-0E711BE769D3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{80914A17-6D0F-42EB-8DAF-D820B0A473B9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{83BD599A-BFFA-4F29-B657-DE6D3C39FC70}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{20407A07-A105-4E17-A6A4-826E346D322C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{425707B4-2A6A-418B-92AF-0AD3AE94744A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2A9A75C9-13BB-4BEF-9219-1345D743C5C8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9A8274A3-6AE2-4C3F-B7AD-A512A92F8DFE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{59407DCD-5CE5-43FD-82B3-2EF98BFD67DF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5BE661EC-D55D-43F3-9DA0-64952DB03F44}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CB113265-5F69-4808-9B33-B48D751867E8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C13A39F4-5C23-42E0-912B-8002A6B48149}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3B2DB772-6411-4B49-87E4-BB0A17E2D8F5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{65703CD9-D040-41FF-9C89-6DC785B4E02A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{007B1A8E-B89F-485B-A0E6-E6E988F71615}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2800E1F4-3F39-4B02-9433-232C643E0CFF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8141910A-2ABB-4F78-BE86-AAE717D91C85}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5C9BD418-5ADC-464F-972F-E57284898170}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{50DC017D-9002-44B3-81F2-4668FB7A5C73}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="56"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6893D4A7-5655-4087-9075-ECA10105B88A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="57"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BF6D9C7F-AE8C-41FE-A417-3D1889F30590}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="58"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0C9B7541-EDB0-4CBC-8E08-86B015278F33}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="59"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{80BF43EC-DE08-4C02-B239-3C2D9BA03295}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="60"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{671F9A4D-34A5-4AAB-BB92-575295D2675E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="61"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{78A84208-83C4-411F-981D-953DE591B24A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="62"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FB4A0A20-F540-426F-9F99-1E4B1906BFF5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="63"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B906D649-8831-48A0-8B60-66DA6B57DB56}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44809</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44844</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44851</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44858</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44872</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44879</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44886</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44893</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44907</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44921</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44949</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44956</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44963</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44970</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44977</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44984</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44991</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45012</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45019</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45026</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45033</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45040</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45047</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45054</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45061</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45068</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45075</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45082</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45089</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45096</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45103</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45110</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45117</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45124</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45131</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45138</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Kalenderwoche!$B:$B</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>51</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>52</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>32</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="592549576"/>
-        <c:axId val="592543672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="592549576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45145"/>
-          <c:min val="44704"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592543672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="7"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="592543672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592549576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter>
-      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
-</c:oddHeader>
-    </c:headerFooter>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -8851,6 +6813,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9323,509 +7788,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10378,6 +8340,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>784414</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Calendar Week">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -10408,7 +8408,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10417,13 +8417,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10437,44 +8437,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>784412</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>784414</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Calendar Week">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10795,7 +8757,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10811,10 +8773,6 @@
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.55118110236220474" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;LCD391E ICA MY2019.50&amp;CSEDAN REAR LAMP PDP&amp;R&amp;D
-</oddHeader>
-  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10824,9 +8782,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12298,7 +10254,9 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12355,5 +10313,6 @@
     <sortCondition ref="B1:B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B16275A-DFB4-4F55-9784-C0892031248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0A873-BEC1-4A10-8FA6-328C72AA1ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,3047 +216,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16453506645337448"/>
-          <c:y val="0.21664518341740857"/>
-          <c:w val="0.76964903438840182"/>
-          <c:h val="8.3198869372097722E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Datenreihe 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E8DB6FC0-CC0F-45BD-AD4F-BB7541E617A8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BCC7EF4F-90EA-4852-84E7-73DC620F1B61}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DCFF78F2-54BE-47EF-B307-A0FD0041890D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0C4FF401-2466-43A1-AD2B-EAB0509FBFD7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B8D08383-2C04-4FBF-A023-A00174905EF9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CA0FF4AC-CD3B-4894-BF8A-8CEE54F6D478}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{41460ADA-96CC-4918-B7C3-DD2D93CA0649}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ACDA25A1-DE46-45E3-A8B7-C0AC613F0D3C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C33C8E8E-A27D-4A02-BCDA-0A0012D0AAF8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4F809387-F26C-4505-853F-9DB5148C9314}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{356D7F7D-EAD8-438F-B1BB-7C8856A2FEBF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F05235D5-B8B5-4240-BF88-FBE6B8679DFD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CE606FD9-BAD1-4117-980A-0615480A74B8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ABA6595F-40BB-4467-8C0B-70075D128302}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{85773FA9-F33A-4179-8C54-C0F2CFF9E70D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{236B3767-EC6F-48D6-9DD3-3B26F8625F0E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{068F1DD2-0912-4279-83A9-DD6A3E4D32B4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{11BAAA5F-9BF6-4803-B8CE-BC2FFF069B85}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{423AD83E-98C1-4F38-93D9-F1F3BE2A6AFF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{462A7C91-407C-43D6-9C4D-931F46EA83C0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A89EEA87-801A-4588-85F2-603063829F7B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{08C4DFEB-7FA7-451F-8606-7C159DB97B55}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{49F707AC-0475-4BDF-B5BB-E9CB335AB59F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7F2D2861-3539-4E5C-8A10-7D38626768C2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1B35CF92-20D3-4A38-81F0-EE954311EC07}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1FE399B2-374E-47FA-8AD7-A34775026BDE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5AB2B5E5-B6BE-4995-8630-E5CDBFB5C341}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A215D074-0258-45F5-9E35-084C2501D371}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8C6D87E4-C48C-47EA-90F9-049506677A5D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AE5A3409-7746-47A1-9355-915773A96803}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C9F55CA4-B830-4A3E-ABF3-A3B72BFB1811}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{80EB41F3-057F-4B83-807F-8F8100F0CDE2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{27300754-C53A-400C-B733-B38406C23387}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FC5878D2-4397-4EFA-9D56-4B9AAFCCF1E9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3948A177-5216-42B6-AE72-8E24279BCAA8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6E567E5E-7876-4BD6-9752-CD891B1A3FCF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6EB9FC22-5AB7-4A5A-B856-8F9B431D5FCA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{81BFD206-BED9-4912-B683-C1E981475F39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{72FA3FD2-4C1A-45D7-BC2B-9AC4C5E691BB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{223F1CC8-C70E-4487-A4E8-CDAE86FF9FBD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EA60BB6A-34C9-4267-8604-5188E1C8D26F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D3E94F4F-CAC9-4246-87FB-38719AEF1584}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1A6722AF-089F-4721-9D35-C9859CF97306}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F3BAA8E6-A900-4CBC-9E9A-B702A7A5F920}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8CDE1440-B3FF-466B-8EF0-96208D389AD4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{70BEC55F-EECF-4D8A-9E5B-C5EBA6766DC6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{192EA8BB-85F3-4A42-A0F9-B10EC475E251}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{385A2A9D-DB0F-4359-9C8E-D495F69F62EC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{824E36F8-015C-4252-98F8-DF7E7CF69387}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3AFB95D0-476F-4FB6-AC38-DEF55CDF72DF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{40B94D3E-5B70-4B3C-A6AE-677A3569E31D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{25F89B7E-B43A-48ED-8518-B95F06754188}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{50D9661E-69D9-4FF9-A03D-B75029ADCF2C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0817973B-10E3-49B6-A017-BFA15E7E0DFF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{29550A14-F0B5-474D-8DD4-9BED7B05725C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AC819FE5-311C-4D31-BD65-D9EC1E2A261C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="56"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D78A3511-332A-4F65-ABBD-E79028C809A2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="57"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BA67C1FD-DBCC-4361-9B89-D9FCCEDF8127}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="58"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{734F8559-B5A9-42A1-83AD-0212D49AE2F4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="59"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C9E86947-EF7F-4F14-A51F-55FE1A249AB0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="60"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{68499D97-F3C4-4CF9-BFF3-8BC82C67AF00}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="61"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CC03E740-4B91-4A4B-A136-F6A1AB49A233}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="62"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3C44C672-76AB-4553-9229-A3DFDC0A3C4F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="63"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F51A6B25-4275-4876-A9F3-650D2033F379}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44809</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44844</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44851</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44858</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44872</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44879</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44886</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44893</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44907</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44921</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44949</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44956</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44963</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44970</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44977</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44984</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44991</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45012</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45019</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45026</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45033</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45040</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45047</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45054</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45061</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45068</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45075</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45082</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45089</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45096</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45103</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45110</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45117</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45124</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45131</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45138</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Kalenderwoche!$B:$B</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>51</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>52</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>32</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="592549576"/>
-        <c:axId val="592543672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="592549576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45145"/>
-          <c:min val="44704"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592543672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="7"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="592543672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592549576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter>
-      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
-</c:oddHeader>
-    </c:headerFooter>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.15389110151355403"/>
           <c:y val="0.26935721737142204"/>
           <c:w val="0.76880987199768602"/>
@@ -3573,7 +532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{137DF5F6-26E0-4065-ABC1-B77FEF387AD4}" type="CELLRANGE">
+                    <a:fld id="{3BF8732C-2C01-422F-A9AB-B9841692D7FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3606,7 +565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36911218-3EF9-46BC-98EF-F60277634806}" type="CELLRANGE">
+                    <a:fld id="{135C413F-9BE8-44B1-9F09-1A215A3A2CBD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3639,7 +598,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40DC5219-DAA1-4F09-9F91-AA0AE7A484AC}" type="CELLRANGE">
+                    <a:fld id="{C836962B-AF55-4BE3-81A0-2D63543004D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3698,7 +657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A4C467-3877-4265-BF54-609ECD574C14}" type="CELLRANGE">
+                    <a:fld id="{57AFFCBC-6A50-4BF4-A27A-256A58CD1E87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3757,7 +716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88DD301B-F404-4FD0-808E-6BAEBC779D4B}" type="CELLRANGE">
+                    <a:fld id="{4E5F58D0-0ECE-4CB6-B79C-B6A4EE196E9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3816,7 +775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC823CA1-E35E-4B7F-B46D-7334E63BC8F6}" type="CELLRANGE">
+                    <a:fld id="{3ABE6BD1-A7A3-4D8E-870C-A9BAD099C01B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3875,7 +834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19F149B8-D7CA-4E8C-9D42-FB42126C3563}" type="CELLRANGE">
+                    <a:fld id="{1700EFB8-8424-4E94-B55D-9A5703B7FF99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4093,7 +1052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C0E46A6-E8A0-4D3B-9E86-EFB5284A69E8}" type="CELLRANGE">
+                    <a:fld id="{4D0FF50B-7C16-4F0D-9A81-C08934B02080}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4127,7 +1086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A74CA14-9F9C-41B0-BFAB-05CF57B97D2B}" type="CELLRANGE">
+                    <a:fld id="{6FEC6706-5DD4-4A12-95D8-C0043073FF87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4161,7 +1120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2937D57-EAAA-417A-9ECF-56994C1964BA}" type="CELLRANGE">
+                    <a:fld id="{EEB8B813-4FFD-472E-88EF-660000FD1509}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4228,7 +1187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9F8F406-0198-4F0C-8651-2164E4D3826A}" type="CELLRANGE">
+                    <a:fld id="{DA4D9627-F721-4324-8C1D-B558B33BD939}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4346,7 +1305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D3E0189-6020-475F-9941-5C2BFD3FA8DE}" type="CELLRANGE">
+                    <a:fld id="{BF4C0596-BAD8-497B-9674-22661C6FA009}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4407,7 +1366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F06C98C1-0C9A-48FE-8651-39C8DA825AA3}" type="CELLRANGE">
+                    <a:fld id="{53574756-C9BE-401C-AA80-4153B503A41D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4994,7 +1953,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5063,7 +2022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8958F28F-38DD-4EC7-8F2F-8EF44D7233D6}" type="CELLRANGE">
+                    <a:fld id="{8A23471F-FF48-4668-AAE4-9964E02B2EC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5072,7 +2031,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{AFF8918C-08E2-4246-ABD0-9DF344D70AFF}" type="SERIESNAME">
+                    <a:fld id="{1532540C-E390-4DEC-AC3C-A79A10D6E82D}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[DATENREIHENNAME]</a:t>
@@ -5611,6 +2570,3047 @@
     </c:headerFooter>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16873086972504384"/>
+          <c:y val="0.21664519943261287"/>
+          <c:w val="0.76964903438840182"/>
+          <c:h val="8.3198869372097722E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Datenreihe 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C2BA79F7-06E9-4837-BA7B-8EB90E6AAC54}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F4A86143-4BCB-4E80-B001-C81943DCF91D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6A9ECED6-11F1-4304-B1D8-FBFCA75280DF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F7AA1D34-B48D-48B4-AD4D-FBE2831224CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB34DB17-CF31-4B8F-8CA0-D1B8DC68C4F9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FD82FBD7-48FD-4CBD-AECD-B79156B9BF9A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{67BE17FA-EC53-4A67-B151-17089D18EBC3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A3124EF9-B5E8-4A7B-AC26-1D03CEE554F5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AF166CEF-0EA5-4179-AFDA-5E9CD91D1AFE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2BBBEDBE-EF41-4F86-8AF3-E713769146F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F88B0FD-182B-49AD-81A6-5D0674A11C09}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B72C448C-E3AA-40B9-B12A-3978BD864D80}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{53FE251C-B68B-44A0-B651-482A10E4F80D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0B644E0-42F9-417A-8B40-38F6CC45483D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{17D43D30-92D9-4D25-AEEF-E999AE2E9B03}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C5F05BDD-C939-49C1-A55D-9F3B7ABE960A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FB0C71C1-0F89-43AA-AD91-217E018458C0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE4E3A32-4D17-4CE1-9215-D64FD5451FBD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D2B3CBE9-334C-4850-AA7C-E20DACAF7233}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C2B7CC1C-5111-4FE2-A9E1-6C7B820F84B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3D1FA583-ECE4-4033-97DF-74BD94F21808}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FBAF47E2-B61D-4D20-B65D-22351A6AFD84}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50F3DBF2-25D8-49EF-952C-26BA9F1B318C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9965E57-E18C-4979-ACAA-4E359391BA28}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1976B3A3-FD49-4EC4-834F-D3597416BB0A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{13C71CAD-1931-469E-9900-152A3C5AE1C5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{967A6E57-7E52-4CF3-99A3-7CFED1CCE483}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{00DC12A5-DE64-4CAD-9D65-69406062EE00}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{819F6B8A-BA16-4727-A1C2-AECFDC103B68}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{908E41BA-1A12-48F0-82CA-582641C6648A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{464DEFE9-79CA-439B-A8E5-49CA727327E5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7409ED96-5BB3-4540-B0B8-CE1318E7D9A9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7A94B71B-C44F-4ACF-9F34-072CA2E118EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{864EC0CF-A0C9-4285-843D-D449E7AA101D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F0C3884-3D2F-4C28-B07F-1CC970DEBB44}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{659BF43C-5FDC-4F3D-9480-D4CB33617901}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{07683667-7101-4522-A271-84ECB6655EAA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F422F607-2A2D-459F-A09B-A636198E5719}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B62029F3-C2A9-4FB1-940B-15BD784E3D91}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{019D9250-6E4A-4F33-BF16-271D38DD1293}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6F1AB15D-9BCE-4575-A1E2-6D9447199C2D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D02FD43-0AF9-41DD-B6B3-816D1CBAFE16}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F94996C8-A5F1-4EF0-9B00-33B769E05058}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A833857B-1BF1-4CD6-BC6B-33961214948E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9AB7CED0-EE0B-4CAA-835E-2DB6C2274E9B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5E374E28-E6EF-452B-886D-AB54503CD68F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3A7CF3E-3016-4650-90FF-82F6731DF9CF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC16C214-C8AF-4CAB-B767-1BCB1CBD5F24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C46CA967-C175-43D7-8D92-372053B806F8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BEBCBEFB-1FD8-445F-9889-21F0D99C90CB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AAA4DE26-ADCF-42D4-809B-5D499B5DD19C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{048C192D-1889-4BB7-8550-9334A2164721}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FDD4A2F9-95D2-4714-ABE5-C2770F755EC2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1560E655-2804-49DD-9C15-C03334C7BB25}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BA20CCC0-B0E5-4E89-8237-FC2AF269DCFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{264A9B0D-F271-4621-BC64-8EF05B29EDA4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4E473DCF-C579-4E0A-B538-E0EEE464A009}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F26F2F39-2445-472E-9B7C-692D981B2FCF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2EE96F60-48AD-4876-90CF-DD8312C4C3BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DB7B0289-CD06-443D-B7DF-4BB3F7BAE4A2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7B24D94D-B69A-48C4-B7F4-9930F19F9570}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D2302ACF-BD14-4DF6-A058-4AD95DED2A6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{941B1E68-1737-4985-9ABF-B4B4AE222491}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{45C8D2EC-B551-4731-9192-4C2728D6F228}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45110</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Kalenderwoche!$B:$B</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1048576"/>
+                  <c:pt idx="0">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>32</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592549576"/>
+        <c:axId val="592543672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592549576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45145"/>
+          <c:min val="44704"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592543672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592543672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592549576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
+</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6813,509 +6813,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7788,6 +7285,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8340,44 +8340,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>784412</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>784414</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Calendar Week">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -8408,7 +8370,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8437,6 +8399,44 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>784414</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Calendar Week">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8757,7 +8757,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -2,11 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0A873-BEC1-4A10-8FA6-328C72AA1ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8D87B-8BFD-497F-8382-F13F07C33872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grafik" sheetId="2" r:id="rId1"/>
@@ -14,6 +13,9 @@
     <sheet name="Phasen" sheetId="1" r:id="rId3"/>
     <sheet name="Milestones" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Grafik!$A$1:$M$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -532,7 +534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BF8732C-2C01-422F-A9AB-B9841692D7FB}" type="CELLRANGE">
+                    <a:fld id="{743622EF-C7C9-474C-8DF5-1C0955A78EBE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -565,7 +567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{135C413F-9BE8-44B1-9F09-1A215A3A2CBD}" type="CELLRANGE">
+                    <a:fld id="{2A710D59-E524-4942-A5FC-DA57207C3341}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -598,7 +600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C836962B-AF55-4BE3-81A0-2D63543004D7}" type="CELLRANGE">
+                    <a:fld id="{E9558430-7AA2-401B-829C-17121F4051B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -657,7 +659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57AFFCBC-6A50-4BF4-A27A-256A58CD1E87}" type="CELLRANGE">
+                    <a:fld id="{803FDA7F-FC39-49AC-BB31-8209DBBB9B12}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -716,7 +718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E5F58D0-0ECE-4CB6-B79C-B6A4EE196E9E}" type="CELLRANGE">
+                    <a:fld id="{75367B8B-D7AE-4C97-8A6F-7968372DD6CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -775,7 +777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ABE6BD1-A7A3-4D8E-870C-A9BAD099C01B}" type="CELLRANGE">
+                    <a:fld id="{6D490537-5C34-429B-A4C6-2459C81AB6A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -834,7 +836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1700EFB8-8424-4E94-B55D-9A5703B7FF99}" type="CELLRANGE">
+                    <a:fld id="{07E660E6-5120-4828-B608-27D17D92D757}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1052,7 +1054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D0FF50B-7C16-4F0D-9A81-C08934B02080}" type="CELLRANGE">
+                    <a:fld id="{26FD4988-C724-479C-AF46-C23668863AF0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1086,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FEC6706-5DD4-4A12-95D8-C0043073FF87}" type="CELLRANGE">
+                    <a:fld id="{6AA17030-210C-4F33-BE3D-0AF8B6695AE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1120,7 +1122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEB8B813-4FFD-472E-88EF-660000FD1509}" type="CELLRANGE">
+                    <a:fld id="{CE2572D7-AE78-4EF4-819B-2D28BD8E3F57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1187,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA4D9627-F721-4324-8C1D-B558B33BD939}" type="CELLRANGE">
+                    <a:fld id="{D24E034E-2B02-4092-9A1A-3BDF9E372D47}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1305,7 +1307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF4C0596-BAD8-497B-9674-22661C6FA009}" type="CELLRANGE">
+                    <a:fld id="{13C7699A-090F-4701-BB5F-654894BF49A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1366,7 +1368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53574756-C9BE-401C-AA80-4153B503A41D}" type="CELLRANGE">
+                    <a:fld id="{B16AD9A4-78AA-4DC7-BE63-E474997D969A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2022,7 +2024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A23471F-FF48-4668-AAE4-9964E02B2EC7}" type="CELLRANGE">
+                    <a:fld id="{94C63869-4106-478F-97B6-34319676D281}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2031,7 +2033,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{1532540C-E390-4DEC-AC3C-A79A10D6E82D}" type="SERIESNAME">
+                    <a:fld id="{66BA8ED6-C095-461D-980D-C71FE001488D}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[DATENREIHENNAME]</a:t>
@@ -2640,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2BA79F7-06E9-4837-BA7B-8EB90E6AAC54}" type="CELLRANGE">
+                    <a:fld id="{638A8633-ABBC-4E4C-8985-B54A78F3BF7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2674,7 +2676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4A86143-4BCB-4E80-B001-C81943DCF91D}" type="CELLRANGE">
+                    <a:fld id="{EE10FB2F-5FA5-476A-AA61-D66D7C52A494}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2708,7 +2710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A9ECED6-11F1-4304-B1D8-FBFCA75280DF}" type="CELLRANGE">
+                    <a:fld id="{D23CCF9E-0259-4E9C-A0B3-D84345B44EA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2742,7 +2744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7AA1D34-B48D-48B4-AD4D-FBE2831224CE}" type="CELLRANGE">
+                    <a:fld id="{A9D1C906-8ABB-4A23-AAA5-A0ACC97E338E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2776,7 +2778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB34DB17-CF31-4B8F-8CA0-D1B8DC68C4F9}" type="CELLRANGE">
+                    <a:fld id="{9CFA0A14-4CF6-4921-B824-0AB4654444DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2810,7 +2812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD82FBD7-48FD-4CBD-AECD-B79156B9BF9A}" type="CELLRANGE">
+                    <a:fld id="{651B30D5-2AE0-48D0-85B7-0BF8D9589D26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2844,7 +2846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67BE17FA-EC53-4A67-B151-17089D18EBC3}" type="CELLRANGE">
+                    <a:fld id="{8299EAF1-D177-41FF-881D-88CF7A7DD66D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2878,7 +2880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3124EF9-B5E8-4A7B-AC26-1D03CEE554F5}" type="CELLRANGE">
+                    <a:fld id="{9C859041-65EF-44C8-8E94-1238129CF0CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2912,7 +2914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF166CEF-0EA5-4179-AFDA-5E9CD91D1AFE}" type="CELLRANGE">
+                    <a:fld id="{F9A2BEED-9D27-4D70-98FE-67FE5906D5E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2946,7 +2948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BBBEDBE-EF41-4F86-8AF3-E713769146F7}" type="CELLRANGE">
+                    <a:fld id="{8335409F-BDEA-4041-8396-FD7C65AC09B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2980,7 +2982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F88B0FD-182B-49AD-81A6-5D0674A11C09}" type="CELLRANGE">
+                    <a:fld id="{72270514-E514-4BDC-866F-896097F5BF6B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3014,7 +3016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B72C448C-E3AA-40B9-B12A-3978BD864D80}" type="CELLRANGE">
+                    <a:fld id="{4C202309-6FEA-4A1C-A3A2-B0B5F329B00B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3048,7 +3050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53FE251C-B68B-44A0-B651-482A10E4F80D}" type="CELLRANGE">
+                    <a:fld id="{D21368C0-E7C5-4CD6-B6E6-79B87DC80E82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3082,7 +3084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0B644E0-42F9-417A-8B40-38F6CC45483D}" type="CELLRANGE">
+                    <a:fld id="{CE090DC4-FF65-44F3-83C0-ED6AD0CC35A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3116,7 +3118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17D43D30-92D9-4D25-AEEF-E999AE2E9B03}" type="CELLRANGE">
+                    <a:fld id="{CE966C60-A2C0-45CA-BB57-480F57C57EFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3150,7 +3152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5F05BDD-C939-49C1-A55D-9F3B7ABE960A}" type="CELLRANGE">
+                    <a:fld id="{DA38C523-AADE-4D25-81F2-9C18EC70646B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3184,7 +3186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB0C71C1-0F89-43AA-AD91-217E018458C0}" type="CELLRANGE">
+                    <a:fld id="{41C99A42-A803-45ED-B202-D6557F2EA23B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3218,7 +3220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE4E3A32-4D17-4CE1-9215-D64FD5451FBD}" type="CELLRANGE">
+                    <a:fld id="{24C2E07F-56E5-419C-9BBA-05E8943EDA1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3252,7 +3254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2B3CBE9-334C-4850-AA7C-E20DACAF7233}" type="CELLRANGE">
+                    <a:fld id="{4AE5B51E-6D02-427A-9323-229614C8BC91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3286,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2B7CC1C-5111-4FE2-A9E1-6C7B820F84B1}" type="CELLRANGE">
+                    <a:fld id="{385EAA74-13AE-4BD8-9540-2822DACD2CFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3320,7 +3322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D1FA583-ECE4-4033-97DF-74BD94F21808}" type="CELLRANGE">
+                    <a:fld id="{AB66C6B3-01BE-4A89-ABEA-599FA47307AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3354,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBAF47E2-B61D-4D20-B65D-22351A6AFD84}" type="CELLRANGE">
+                    <a:fld id="{DAC117FD-8947-4116-BC1F-09B4D0244E1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3388,7 +3390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50F3DBF2-25D8-49EF-952C-26BA9F1B318C}" type="CELLRANGE">
+                    <a:fld id="{0DC0535C-1719-424C-98DA-A99CC5C583CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3422,7 +3424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9965E57-E18C-4979-ACAA-4E359391BA28}" type="CELLRANGE">
+                    <a:fld id="{FC5C88D3-C4D2-46BE-9EF6-2287901AC65C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3456,7 +3458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1976B3A3-FD49-4EC4-834F-D3597416BB0A}" type="CELLRANGE">
+                    <a:fld id="{5D047592-87F3-47B6-B519-010054F89E89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3490,7 +3492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13C71CAD-1931-469E-9900-152A3C5AE1C5}" type="CELLRANGE">
+                    <a:fld id="{D778308B-910C-4917-B19F-BB68D050821F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3524,7 +3526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{967A6E57-7E52-4CF3-99A3-7CFED1CCE483}" type="CELLRANGE">
+                    <a:fld id="{C27F0A35-8F5E-4896-87C3-03F45F2CD433}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3558,7 +3560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00DC12A5-DE64-4CAD-9D65-69406062EE00}" type="CELLRANGE">
+                    <a:fld id="{3A8F2856-4B75-44C6-83AB-F64A3458C7B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3592,7 +3594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{819F6B8A-BA16-4727-A1C2-AECFDC103B68}" type="CELLRANGE">
+                    <a:fld id="{66999D71-F29D-4BDF-B40E-8CB8FFE61608}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3626,7 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{908E41BA-1A12-48F0-82CA-582641C6648A}" type="CELLRANGE">
+                    <a:fld id="{F0FCB88A-8E17-427E-9D77-9F6E35EA0138}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3660,7 +3662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{464DEFE9-79CA-439B-A8E5-49CA727327E5}" type="CELLRANGE">
+                    <a:fld id="{81011F69-BC69-43DE-988F-F4D0497FE5C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3694,7 +3696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7409ED96-5BB3-4540-B0B8-CE1318E7D9A9}" type="CELLRANGE">
+                    <a:fld id="{29C263EE-EB02-4066-950D-CF0867FFE20C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3728,7 +3730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A94B71B-C44F-4ACF-9F34-072CA2E118EC}" type="CELLRANGE">
+                    <a:fld id="{82FBAE15-A232-452C-82C5-171AB86A9E90}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3762,7 +3764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{864EC0CF-A0C9-4285-843D-D449E7AA101D}" type="CELLRANGE">
+                    <a:fld id="{AF200989-13D6-453B-984B-CACCA53D7DE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3796,7 +3798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F0C3884-3D2F-4C28-B07F-1CC970DEBB44}" type="CELLRANGE">
+                    <a:fld id="{36030CD0-F6D4-4960-9A54-9DD561BBC450}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3830,7 +3832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{659BF43C-5FDC-4F3D-9480-D4CB33617901}" type="CELLRANGE">
+                    <a:fld id="{6BC4A60A-B4E8-47EE-9DD2-DDF5F3DFDD68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3864,7 +3866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07683667-7101-4522-A271-84ECB6655EAA}" type="CELLRANGE">
+                    <a:fld id="{4DE19E89-90A7-4384-8B6B-60BAE7F20AC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3898,7 +3900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F422F607-2A2D-459F-A09B-A636198E5719}" type="CELLRANGE">
+                    <a:fld id="{001D9FAE-A76F-4025-B236-E8BA8640B3B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3932,7 +3934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B62029F3-C2A9-4FB1-940B-15BD784E3D91}" type="CELLRANGE">
+                    <a:fld id="{FADD0C19-EC66-40D5-9271-5591DADC82A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3966,7 +3968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{019D9250-6E4A-4F33-BF16-271D38DD1293}" type="CELLRANGE">
+                    <a:fld id="{7D12AFB9-5029-4A1B-ABC6-B03FB4DE5D6E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4000,7 +4002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F1AB15D-9BCE-4575-A1E2-6D9447199C2D}" type="CELLRANGE">
+                    <a:fld id="{2BFC1C41-9177-4537-951D-DE07DFFEACD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4034,7 +4036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D02FD43-0AF9-41DD-B6B3-816D1CBAFE16}" type="CELLRANGE">
+                    <a:fld id="{15A931F4-E9A1-4197-A2DB-81B684B6EB64}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4068,7 +4070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F94996C8-A5F1-4EF0-9B00-33B769E05058}" type="CELLRANGE">
+                    <a:fld id="{E8B46BBC-119D-4E57-9AE8-C25F06C2A232}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4102,7 +4104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A833857B-1BF1-4CD6-BC6B-33961214948E}" type="CELLRANGE">
+                    <a:fld id="{5971FFDD-4BCB-4220-8087-5AB7F7BD4547}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4136,7 +4138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AB7CED0-EE0B-4CAA-835E-2DB6C2274E9B}" type="CELLRANGE">
+                    <a:fld id="{2E541236-CA7B-47E4-A24B-64CBDC4F685B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4170,7 +4172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E374E28-E6EF-452B-886D-AB54503CD68F}" type="CELLRANGE">
+                    <a:fld id="{B2C3FBAD-8E55-46DC-AE0D-5EF5D4BCA1F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4204,7 +4206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3A7CF3E-3016-4650-90FF-82F6731DF9CF}" type="CELLRANGE">
+                    <a:fld id="{D650A610-5C02-4E84-BBF3-2A14776C9620}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4238,7 +4240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC16C214-C8AF-4CAB-B767-1BCB1CBD5F24}" type="CELLRANGE">
+                    <a:fld id="{ECCC9DF8-5DDE-4961-B714-A71C7592D3FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4272,7 +4274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C46CA967-C175-43D7-8D92-372053B806F8}" type="CELLRANGE">
+                    <a:fld id="{411059AF-9C0E-422F-AFD5-D2D3BC311B48}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4306,7 +4308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEBCBEFB-1FD8-445F-9889-21F0D99C90CB}" type="CELLRANGE">
+                    <a:fld id="{67D53231-CDD9-446C-BBAD-326E65A9F60C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4340,7 +4342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAA4DE26-ADCF-42D4-809B-5D499B5DD19C}" type="CELLRANGE">
+                    <a:fld id="{13A9A856-323D-48A4-839A-EC265388AE6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4374,7 +4376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{048C192D-1889-4BB7-8550-9334A2164721}" type="CELLRANGE">
+                    <a:fld id="{DE6C68F8-DF6C-4F5D-9C6E-9A0A48483DE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4408,7 +4410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDD4A2F9-95D2-4714-ABE5-C2770F755EC2}" type="CELLRANGE">
+                    <a:fld id="{F8F9A962-B6EF-4525-9D5E-3531FA6552DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4442,7 +4444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1560E655-2804-49DD-9C15-C03334C7BB25}" type="CELLRANGE">
+                    <a:fld id="{64813AB0-1CB5-4C12-A144-708E48C83E8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4476,7 +4478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA20CCC0-B0E5-4E89-8237-FC2AF269DCFD}" type="CELLRANGE">
+                    <a:fld id="{782526B2-B5B2-4A90-9B45-46A742AB425F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4510,7 +4512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{264A9B0D-F271-4621-BC64-8EF05B29EDA4}" type="CELLRANGE">
+                    <a:fld id="{A51C3C88-C234-4EA1-A564-08323D6A44D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4544,7 +4546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E473DCF-C579-4E0A-B538-E0EEE464A009}" type="CELLRANGE">
+                    <a:fld id="{05BD1F65-6492-4CDD-A622-82167C83ED9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4578,7 +4580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F26F2F39-2445-472E-9B7C-692D981B2FCF}" type="CELLRANGE">
+                    <a:fld id="{E2A9F8CF-DAA3-4DCA-B1CB-90E1BD072E15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4612,7 +4614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EE96F60-48AD-4876-90CF-DD8312C4C3BC}" type="CELLRANGE">
+                    <a:fld id="{460FB027-6670-4434-8A57-7F96796E4699}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4646,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB7B0289-CD06-443D-B7DF-4BB3F7BAE4A2}" type="CELLRANGE">
+                    <a:fld id="{703C96C4-8574-4A6A-89E0-6F138925E975}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4680,7 +4682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B24D94D-B69A-48C4-B7F4-9930F19F9570}" type="CELLRANGE">
+                    <a:fld id="{02A9570F-DCC0-4BB0-8DEA-ABE79456E506}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4714,7 +4716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2302ACF-BD14-4DF6-A058-4AD95DED2A6D}" type="CELLRANGE">
+                    <a:fld id="{D3ED6553-5BC5-481E-ABBC-D6C483D1C212}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4748,7 +4750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{941B1E68-1737-4985-9ABF-B4B4AE222491}" type="CELLRANGE">
+                    <a:fld id="{27ADCCD5-12AA-4455-9590-A796D0CBD66E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4782,7 +4784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45C8D2EC-B551-4731-9192-4C2728D6F228}" type="CELLRANGE">
+                    <a:fld id="{FFA4BE18-4266-4F4C-9FFB-CFBCB442CBF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8757,7 +8759,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8782,7 +8784,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10254,9 +10256,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D8D87B-8BFD-497F-8382-F13F07C33872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E737AD-2598-4811-91CE-DF5420DCDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grafik" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{743622EF-C7C9-474C-8DF5-1C0955A78EBE}" type="CELLRANGE">
+                    <a:fld id="{B518DA9F-D86B-4B00-BAF0-BC94FA0C969D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -567,7 +567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A710D59-E524-4942-A5FC-DA57207C3341}" type="CELLRANGE">
+                    <a:fld id="{CD1CA9B3-9A1B-45D8-9442-276A18FEF575}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -600,7 +600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9558430-7AA2-401B-829C-17121F4051B6}" type="CELLRANGE">
+                    <a:fld id="{EC7A1F41-85C0-4546-B645-81D84BA6CC0B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -659,7 +659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{803FDA7F-FC39-49AC-BB31-8209DBBB9B12}" type="CELLRANGE">
+                    <a:fld id="{75A10962-2A28-48D2-83C2-04F943A17156}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -718,7 +718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75367B8B-D7AE-4C97-8A6F-7968372DD6CB}" type="CELLRANGE">
+                    <a:fld id="{793CC080-1FDF-4E59-953B-F02346C035A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -777,7 +777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D490537-5C34-429B-A4C6-2459C81AB6A7}" type="CELLRANGE">
+                    <a:fld id="{23E834DB-3D0C-415F-ADE8-ED77AD56840F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -836,7 +836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07E660E6-5120-4828-B608-27D17D92D757}" type="CELLRANGE">
+                    <a:fld id="{310BFAB2-1AB3-41E0-AB7F-A935273634BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1054,7 +1054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26FD4988-C724-479C-AF46-C23668863AF0}" type="CELLRANGE">
+                    <a:fld id="{4CC0BE5F-9AE6-4289-993A-7271E158608A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AA17030-210C-4F33-BE3D-0AF8B6695AE3}" type="CELLRANGE">
+                    <a:fld id="{6873DE35-98D0-4942-96A4-2BD8CA990B8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1122,7 +1122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE2572D7-AE78-4EF4-819B-2D28BD8E3F57}" type="CELLRANGE">
+                    <a:fld id="{91044754-5142-4F02-A81E-AF18327EE3B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1189,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D24E034E-2B02-4092-9A1A-3BDF9E372D47}" type="CELLRANGE">
+                    <a:fld id="{88FE4B5E-FEAE-468A-A560-697FA5E946EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1307,7 +1307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13C7699A-090F-4701-BB5F-654894BF49A2}" type="CELLRANGE">
+                    <a:fld id="{DE8DE75D-9D4A-40F6-8E7E-2229A89906D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1368,7 +1368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B16AD9A4-78AA-4DC7-BE63-E474997D969A}" type="CELLRANGE">
+                    <a:fld id="{16E3E104-7B8C-4A23-97F0-AA64B08F446C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2024,7 +2024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94C63869-4106-478F-97B6-34319676D281}" type="CELLRANGE">
+                    <a:fld id="{0E799EEA-D9AC-4C63-8E5C-5BBA6BB3E38C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2033,7 +2033,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{66BA8ED6-C095-461D-980D-C71FE001488D}" type="SERIESNAME">
+                    <a:fld id="{85AC07E0-A216-4164-AE99-9C2AF508E6B7}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[DATENREIHENNAME]</a:t>
@@ -2642,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{638A8633-ABBC-4E4C-8985-B54A78F3BF7F}" type="CELLRANGE">
+                    <a:fld id="{AE7F381D-2F17-40D7-AE5B-49F91F8D13E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2676,7 +2676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE10FB2F-5FA5-476A-AA61-D66D7C52A494}" type="CELLRANGE">
+                    <a:fld id="{74F91A81-F188-4369-9D25-30E441134CD8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2710,7 +2710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D23CCF9E-0259-4E9C-A0B3-D84345B44EA2}" type="CELLRANGE">
+                    <a:fld id="{14619235-7027-48B4-9632-9F66A96B4D1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2744,7 +2744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9D1C906-8ABB-4A23-AAA5-A0ACC97E338E}" type="CELLRANGE">
+                    <a:fld id="{875D9EC0-0365-465D-9207-FE1E49022655}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2778,7 +2778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CFA0A14-4CF6-4921-B824-0AB4654444DC}" type="CELLRANGE">
+                    <a:fld id="{60EC7B6F-303D-4713-84F7-9CFFEF520A3C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2812,7 +2812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{651B30D5-2AE0-48D0-85B7-0BF8D9589D26}" type="CELLRANGE">
+                    <a:fld id="{78AB77A0-0152-4BF2-B398-91E6A4674E5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2846,7 +2846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8299EAF1-D177-41FF-881D-88CF7A7DD66D}" type="CELLRANGE">
+                    <a:fld id="{768E39F1-E336-4775-A541-4BFEEDEEBB4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2880,7 +2880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C859041-65EF-44C8-8E94-1238129CF0CB}" type="CELLRANGE">
+                    <a:fld id="{A6032E4B-003E-4D44-ABA3-E79AABFF5DCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2914,7 +2914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9A2BEED-9D27-4D70-98FE-67FE5906D5E6}" type="CELLRANGE">
+                    <a:fld id="{957F5FC8-49E3-4063-88B7-D54834638260}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2948,7 +2948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8335409F-BDEA-4041-8396-FD7C65AC09B3}" type="CELLRANGE">
+                    <a:fld id="{10FE1B91-CEBA-4B5D-AA74-E8500B044778}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2982,7 +2982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72270514-E514-4BDC-866F-896097F5BF6B}" type="CELLRANGE">
+                    <a:fld id="{6187B81A-C320-45DB-A132-3FB2062A8510}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3016,7 +3016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C202309-6FEA-4A1C-A3A2-B0B5F329B00B}" type="CELLRANGE">
+                    <a:fld id="{E708F5C8-A86D-43A4-B78B-BE270ED1C2A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3050,7 +3050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D21368C0-E7C5-4CD6-B6E6-79B87DC80E82}" type="CELLRANGE">
+                    <a:fld id="{E36F6B39-BC6C-4928-8456-8CDDD9759AB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3084,7 +3084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE090DC4-FF65-44F3-83C0-ED6AD0CC35A1}" type="CELLRANGE">
+                    <a:fld id="{64501332-BE92-4DF1-8330-5473D1B27B68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3118,7 +3118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE966C60-A2C0-45CA-BB57-480F57C57EFD}" type="CELLRANGE">
+                    <a:fld id="{702B9E92-9893-48F7-9C29-61FB1E9964FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3152,7 +3152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA38C523-AADE-4D25-81F2-9C18EC70646B}" type="CELLRANGE">
+                    <a:fld id="{FA2A022F-C690-4422-AAC3-81728DDE4E54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3186,7 +3186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41C99A42-A803-45ED-B202-D6557F2EA23B}" type="CELLRANGE">
+                    <a:fld id="{6A1CAE3A-204C-4EEB-9B40-F7613D0E1122}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3220,7 +3220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24C2E07F-56E5-419C-9BBA-05E8943EDA1C}" type="CELLRANGE">
+                    <a:fld id="{B79677A4-7EA9-4FF3-9FBB-8614FDBB58A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3254,7 +3254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AE5B51E-6D02-427A-9323-229614C8BC91}" type="CELLRANGE">
+                    <a:fld id="{10B2C101-260A-4D8E-98B0-6BE0B7FF5751}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3288,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{385EAA74-13AE-4BD8-9540-2822DACD2CFA}" type="CELLRANGE">
+                    <a:fld id="{D4E7F601-F3AE-4E7D-957A-35FF6C9CD5DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3322,7 +3322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB66C6B3-01BE-4A89-ABEA-599FA47307AF}" type="CELLRANGE">
+                    <a:fld id="{F81EF6C8-4F60-49EF-9AE1-97EE40756337}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3356,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAC117FD-8947-4116-BC1F-09B4D0244E1A}" type="CELLRANGE">
+                    <a:fld id="{07F50D9C-0E49-4082-B6A3-63D8FE98807D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3390,7 +3390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DC0535C-1719-424C-98DA-A99CC5C583CD}" type="CELLRANGE">
+                    <a:fld id="{EA9A3037-6D4B-4602-B626-A12A9B671AA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3424,7 +3424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC5C88D3-C4D2-46BE-9EF6-2287901AC65C}" type="CELLRANGE">
+                    <a:fld id="{1E062F03-CD51-471B-A33C-3BAF0A1CC2A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3458,7 +3458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D047592-87F3-47B6-B519-010054F89E89}" type="CELLRANGE">
+                    <a:fld id="{D324CC65-CDDE-4778-93C9-35973CA57310}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3492,7 +3492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D778308B-910C-4917-B19F-BB68D050821F}" type="CELLRANGE">
+                    <a:fld id="{E6A3AADF-BDF5-4EA8-90ED-BA97BEC88D7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3526,7 +3526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C27F0A35-8F5E-4896-87C3-03F45F2CD433}" type="CELLRANGE">
+                    <a:fld id="{B6A5432D-324B-41B2-A1E7-277423E6B597}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3560,7 +3560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A8F2856-4B75-44C6-83AB-F64A3458C7B0}" type="CELLRANGE">
+                    <a:fld id="{21612BDF-3D5B-4669-B0D5-F20859FC410B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3594,7 +3594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66999D71-F29D-4BDF-B40E-8CB8FFE61608}" type="CELLRANGE">
+                    <a:fld id="{E5BB2E37-85D7-4FD5-A632-4684CCD296B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3628,7 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0FCB88A-8E17-427E-9D77-9F6E35EA0138}" type="CELLRANGE">
+                    <a:fld id="{5FE8854F-7581-4C4A-91C8-DB8E4671E558}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3662,7 +3662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81011F69-BC69-43DE-988F-F4D0497FE5C0}" type="CELLRANGE">
+                    <a:fld id="{E7193D02-F8F2-44E9-8839-033FB583F68B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3696,7 +3696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29C263EE-EB02-4066-950D-CF0867FFE20C}" type="CELLRANGE">
+                    <a:fld id="{803A2A74-7A34-40D1-A27F-27FE04FBC5B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3730,7 +3730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82FBAE15-A232-452C-82C5-171AB86A9E90}" type="CELLRANGE">
+                    <a:fld id="{09F7CF12-008E-4FB7-9966-677D3C351EA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3764,7 +3764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF200989-13D6-453B-984B-CACCA53D7DE8}" type="CELLRANGE">
+                    <a:fld id="{2D9FD18F-5BBC-4CD2-921A-673A653EFC43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3798,7 +3798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36030CD0-F6D4-4960-9A54-9DD561BBC450}" type="CELLRANGE">
+                    <a:fld id="{096AD229-0BBB-4420-A2E3-99522902E3ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3832,7 +3832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BC4A60A-B4E8-47EE-9DD2-DDF5F3DFDD68}" type="CELLRANGE">
+                    <a:fld id="{4CAF5EBE-6927-4472-897A-F90AFDD50DE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3866,7 +3866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DE19E89-90A7-4384-8B6B-60BAE7F20AC5}" type="CELLRANGE">
+                    <a:fld id="{92C80908-AFD5-44F9-B1DF-4E79B3CA1294}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3900,7 +3900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{001D9FAE-A76F-4025-B236-E8BA8640B3B2}" type="CELLRANGE">
+                    <a:fld id="{8805320C-7DB4-477C-B375-4F162B748AFF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3934,7 +3934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FADD0C19-EC66-40D5-9271-5591DADC82A0}" type="CELLRANGE">
+                    <a:fld id="{434D5463-1470-4F0C-8057-13F9180FFDFF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3968,7 +3968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D12AFB9-5029-4A1B-ABC6-B03FB4DE5D6E}" type="CELLRANGE">
+                    <a:fld id="{18AF079E-6C4D-45E3-96F5-C837215B12E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4002,7 +4002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BFC1C41-9177-4537-951D-DE07DFFEACD2}" type="CELLRANGE">
+                    <a:fld id="{7D48B81D-F01D-4799-ABF6-019550B49540}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4036,7 +4036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15A931F4-E9A1-4197-A2DB-81B684B6EB64}" type="CELLRANGE">
+                    <a:fld id="{89EA26C3-4436-4DE4-9C43-F0B7E6BFE4FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4070,7 +4070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8B46BBC-119D-4E57-9AE8-C25F06C2A232}" type="CELLRANGE">
+                    <a:fld id="{2876E888-C23C-497C-BE86-8BB6A84DC074}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4104,7 +4104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5971FFDD-4BCB-4220-8087-5AB7F7BD4547}" type="CELLRANGE">
+                    <a:fld id="{CB52E287-EE4B-4DA7-964A-7898870BE9D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4138,7 +4138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E541236-CA7B-47E4-A24B-64CBDC4F685B}" type="CELLRANGE">
+                    <a:fld id="{8396BBC4-0702-4D19-BE3F-4CCBDBCA8F34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4172,7 +4172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2C3FBAD-8E55-46DC-AE0D-5EF5D4BCA1F6}" type="CELLRANGE">
+                    <a:fld id="{6B31B3E4-D2E7-49BC-AC3B-AE3C59529A74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4206,7 +4206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D650A610-5C02-4E84-BBF3-2A14776C9620}" type="CELLRANGE">
+                    <a:fld id="{F95F230D-32D7-488E-AAA1-2CCA03AE7960}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4240,7 +4240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECCC9DF8-5DDE-4961-B714-A71C7592D3FC}" type="CELLRANGE">
+                    <a:fld id="{DEC5C259-0D8F-41C5-A892-A576B68E07F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4274,7 +4274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{411059AF-9C0E-422F-AFD5-D2D3BC311B48}" type="CELLRANGE">
+                    <a:fld id="{B24DC508-F88F-48B7-A149-93243335B0A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4308,7 +4308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67D53231-CDD9-446C-BBAD-326E65A9F60C}" type="CELLRANGE">
+                    <a:fld id="{F0B9C6F1-A29D-446A-B123-3B7BEC532265}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4342,7 +4342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13A9A856-323D-48A4-839A-EC265388AE6C}" type="CELLRANGE">
+                    <a:fld id="{39ABFA09-06B9-4442-B62D-54BD5A637F67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4376,7 +4376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE6C68F8-DF6C-4F5D-9C6E-9A0A48483DE4}" type="CELLRANGE">
+                    <a:fld id="{03CBEBEF-2BD9-4CA8-AB96-98485C81CBB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4410,7 +4410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8F9A962-B6EF-4525-9D5E-3531FA6552DC}" type="CELLRANGE">
+                    <a:fld id="{36F7118F-B76A-49C8-9567-FB846D7B7B02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4444,7 +4444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64813AB0-1CB5-4C12-A144-708E48C83E8D}" type="CELLRANGE">
+                    <a:fld id="{CE4DE360-28AA-45FE-84E2-086807700326}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4478,7 +4478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{782526B2-B5B2-4A90-9B45-46A742AB425F}" type="CELLRANGE">
+                    <a:fld id="{D00CAEE4-1C53-490D-8048-2DD3E677EE63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4512,7 +4512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A51C3C88-C234-4EA1-A564-08323D6A44D2}" type="CELLRANGE">
+                    <a:fld id="{6265FC2F-0CE0-454D-B98D-A48EA4B2017B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4546,7 +4546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05BD1F65-6492-4CDD-A622-82167C83ED9E}" type="CELLRANGE">
+                    <a:fld id="{3CECACD9-86F9-4093-BBCA-14BB5B1245F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4580,7 +4580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2A9F8CF-DAA3-4DCA-B1CB-90E1BD072E15}" type="CELLRANGE">
+                    <a:fld id="{C252A75C-6326-4EC3-9D79-F98BED37109D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4614,7 +4614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{460FB027-6670-4434-8A57-7F96796E4699}" type="CELLRANGE">
+                    <a:fld id="{B521BC9B-5277-4E67-AB65-DC83C1AB0BBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4648,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{703C96C4-8574-4A6A-89E0-6F138925E975}" type="CELLRANGE">
+                    <a:fld id="{BB3A7709-885C-491D-A5DA-17069ECBD928}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4682,7 +4682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02A9570F-DCC0-4BB0-8DEA-ABE79456E506}" type="CELLRANGE">
+                    <a:fld id="{B691D7A6-AB34-4499-8C3A-8A7FF5074BAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4716,7 +4716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3ED6553-5BC5-481E-ABBC-D6C483D1C212}" type="CELLRANGE">
+                    <a:fld id="{C5491344-4C58-4414-A04C-6A50ED34076C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4750,7 +4750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27ADCCD5-12AA-4455-9590-A796D0CBD66E}" type="CELLRANGE">
+                    <a:fld id="{93D34B82-053C-4D33-BA22-ACA6657B570E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4784,7 +4784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFA4BE18-4266-4F4C-9FFB-CFBCB442CBF2}" type="CELLRANGE">
+                    <a:fld id="{D8AA7485-EE6F-4F86-B9FC-D296AAC4CD1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8759,7 +8759,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10256,7 +10256,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E737AD-2598-4811-91CE-DF5420DCDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F346A-C659-4CD6-9A7D-9B4AB147EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B518DA9F-D86B-4B00-BAF0-BC94FA0C969D}" type="CELLRANGE">
+                    <a:fld id="{7E23C673-F636-43E4-B1F3-0ADF01D8A8E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -567,7 +567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD1CA9B3-9A1B-45D8-9442-276A18FEF575}" type="CELLRANGE">
+                    <a:fld id="{F621CB94-649C-4DB0-B373-E2A625C9740C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -600,7 +600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC7A1F41-85C0-4546-B645-81D84BA6CC0B}" type="CELLRANGE">
+                    <a:fld id="{508F749E-9580-45EB-A68E-638DFB6068DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -659,7 +659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75A10962-2A28-48D2-83C2-04F943A17156}" type="CELLRANGE">
+                    <a:fld id="{86E9F316-8631-42C8-A7C9-E6D45E4BCD78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -718,7 +718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{793CC080-1FDF-4E59-953B-F02346C035A9}" type="CELLRANGE">
+                    <a:fld id="{4FFF8F5B-2B88-4E33-B57A-3BE6C2F457EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -777,7 +777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23E834DB-3D0C-415F-ADE8-ED77AD56840F}" type="CELLRANGE">
+                    <a:fld id="{3C2C0E83-3060-40AA-91A8-358834A2E8EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -836,7 +836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{310BFAB2-1AB3-41E0-AB7F-A935273634BE}" type="CELLRANGE">
+                    <a:fld id="{D7CB976B-1E1A-4A88-9084-F907E656DF8A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1054,7 +1054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CC0BE5F-9AE6-4289-993A-7271E158608A}" type="CELLRANGE">
+                    <a:fld id="{D5CAFD20-F9A8-498D-8B42-B03B6A7CBF41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6873DE35-98D0-4942-96A4-2BD8CA990B8D}" type="CELLRANGE">
+                    <a:fld id="{3CC90A40-C892-409D-AA0C-DB927DA863C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1122,7 +1122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91044754-5142-4F02-A81E-AF18327EE3B5}" type="CELLRANGE">
+                    <a:fld id="{3B4264A1-E7D8-496C-AFE9-47637058255E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1189,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88FE4B5E-FEAE-468A-A560-697FA5E946EC}" type="CELLRANGE">
+                    <a:fld id="{F7983CBD-A596-4B10-8565-C6638EEFC909}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1307,7 +1307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE8DE75D-9D4A-40F6-8E7E-2229A89906D5}" type="CELLRANGE">
+                    <a:fld id="{98BFF9D2-39E1-47AB-90F2-3B015EA905FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1368,7 +1368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16E3E104-7B8C-4A23-97F0-AA64B08F446C}" type="CELLRANGE">
+                    <a:fld id="{4F20CA4F-FCD5-472F-A1A8-551217142B08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2024,7 +2024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E799EEA-D9AC-4C63-8E5C-5BBA6BB3E38C}" type="CELLRANGE">
+                    <a:fld id="{D3523E1C-A957-42AB-8039-13186F55AE27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2033,7 +2033,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{85AC07E0-A216-4164-AE99-9C2AF508E6B7}" type="SERIESNAME">
+                    <a:fld id="{22EEB72A-6336-4BD6-ACB4-D9CD0F87BF37}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[DATENREIHENNAME]</a:t>
@@ -2597,9 +2597,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16873086972504384"/>
-          <c:y val="0.21664519943261287"/>
-          <c:w val="0.76964903438840182"/>
+          <c:x val="0.16586523545515736"/>
+          <c:y val="0.21301105577476911"/>
+          <c:w val="0.76964901667763652"/>
           <c:h val="8.3198869372097722E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2642,7 +2642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE7F381D-2F17-40D7-AE5B-49F91F8D13E5}" type="CELLRANGE">
+                    <a:fld id="{3595EED2-9EA9-4340-A0C6-7AAE9E8F1925}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2676,7 +2676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74F91A81-F188-4369-9D25-30E441134CD8}" type="CELLRANGE">
+                    <a:fld id="{BDEA97BC-C960-4FA5-A46F-0F673292E02F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2710,7 +2710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14619235-7027-48B4-9632-9F66A96B4D1C}" type="CELLRANGE">
+                    <a:fld id="{BC92BF1A-2FB0-4BDA-B281-DF48F0EC1076}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2744,7 +2744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{875D9EC0-0365-465D-9207-FE1E49022655}" type="CELLRANGE">
+                    <a:fld id="{946D7EDC-2A35-476A-82AF-8FC436F8089B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2778,7 +2778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60EC7B6F-303D-4713-84F7-9CFFEF520A3C}" type="CELLRANGE">
+                    <a:fld id="{A39266E5-B7C0-4EBA-97E6-6842B6898FF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2812,7 +2812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78AB77A0-0152-4BF2-B398-91E6A4674E5D}" type="CELLRANGE">
+                    <a:fld id="{10EBD4F3-2831-40EB-8C71-D382150CB5CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2846,7 +2846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{768E39F1-E336-4775-A541-4BFEEDEEBB4A}" type="CELLRANGE">
+                    <a:fld id="{E6E4E67E-B091-4CB1-972E-1BD497EED1D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2880,7 +2880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6032E4B-003E-4D44-ABA3-E79AABFF5DCA}" type="CELLRANGE">
+                    <a:fld id="{561DBB23-CEE9-44D4-9965-D876A783F438}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2914,7 +2914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{957F5FC8-49E3-4063-88B7-D54834638260}" type="CELLRANGE">
+                    <a:fld id="{02C7BC7C-4E0A-49FD-A09F-49CC1E544631}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2948,7 +2948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10FE1B91-CEBA-4B5D-AA74-E8500B044778}" type="CELLRANGE">
+                    <a:fld id="{E54A170B-CBBD-4FB6-8026-65840EF93350}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2982,7 +2982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6187B81A-C320-45DB-A132-3FB2062A8510}" type="CELLRANGE">
+                    <a:fld id="{AA4E19FD-0BD0-43C2-9BAE-740A0CDD5164}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3016,7 +3016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E708F5C8-A86D-43A4-B78B-BE270ED1C2A2}" type="CELLRANGE">
+                    <a:fld id="{EAEF6321-83BE-4613-ADC1-731C3EFE9CC2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3050,7 +3050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E36F6B39-BC6C-4928-8456-8CDDD9759AB5}" type="CELLRANGE">
+                    <a:fld id="{FA915E27-3FB5-44F2-9FE5-7D951E287211}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3084,7 +3084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64501332-BE92-4DF1-8330-5473D1B27B68}" type="CELLRANGE">
+                    <a:fld id="{0DD8BCFA-0106-4734-8302-7A32B2253823}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3118,7 +3118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{702B9E92-9893-48F7-9C29-61FB1E9964FC}" type="CELLRANGE">
+                    <a:fld id="{6C827A2E-EFC9-4088-AA4D-A97DAF6C2374}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3152,7 +3152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA2A022F-C690-4422-AAC3-81728DDE4E54}" type="CELLRANGE">
+                    <a:fld id="{7DE10E28-D77E-4822-869E-7740BDC8F86C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3186,7 +3186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A1CAE3A-204C-4EEB-9B40-F7613D0E1122}" type="CELLRANGE">
+                    <a:fld id="{9290635C-3F8F-433F-B8CD-F387CEA787BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3220,7 +3220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B79677A4-7EA9-4FF3-9FBB-8614FDBB58A6}" type="CELLRANGE">
+                    <a:fld id="{185C30A6-6805-42A8-840F-3504D43ABE08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3254,7 +3254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10B2C101-260A-4D8E-98B0-6BE0B7FF5751}" type="CELLRANGE">
+                    <a:fld id="{3EE74887-62D9-436F-B95A-0D3C41341687}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3288,7 +3288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4E7F601-F3AE-4E7D-957A-35FF6C9CD5DA}" type="CELLRANGE">
+                    <a:fld id="{A0EAEEC8-7B9D-4151-B065-472F81515AE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3322,7 +3322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F81EF6C8-4F60-49EF-9AE1-97EE40756337}" type="CELLRANGE">
+                    <a:fld id="{77BC5C4C-3C1A-4AC8-9107-78E684956729}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3356,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F50D9C-0E49-4082-B6A3-63D8FE98807D}" type="CELLRANGE">
+                    <a:fld id="{20973CBF-2552-4F43-BAA1-45688A543CB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3390,7 +3390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA9A3037-6D4B-4602-B626-A12A9B671AA1}" type="CELLRANGE">
+                    <a:fld id="{E5E6A71C-6DAB-4CF9-838B-5464FB03002B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3424,7 +3424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E062F03-CD51-471B-A33C-3BAF0A1CC2A9}" type="CELLRANGE">
+                    <a:fld id="{11A4EE99-B75C-4DFE-B795-5A7F7B4D55EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3458,7 +3458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D324CC65-CDDE-4778-93C9-35973CA57310}" type="CELLRANGE">
+                    <a:fld id="{BD1B9C22-2FDB-4B03-B00E-4F82935A609D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3492,7 +3492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6A3AADF-BDF5-4EA8-90ED-BA97BEC88D7F}" type="CELLRANGE">
+                    <a:fld id="{F70BF252-3530-4622-BDF0-818E56FA3C9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3526,7 +3526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6A5432D-324B-41B2-A1E7-277423E6B597}" type="CELLRANGE">
+                    <a:fld id="{39E91627-B28B-4B8E-85CE-940931316BAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3560,7 +3560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21612BDF-3D5B-4669-B0D5-F20859FC410B}" type="CELLRANGE">
+                    <a:fld id="{462B9B84-4672-405F-8843-528CF86410C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3594,7 +3594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5BB2E37-85D7-4FD5-A632-4684CCD296B6}" type="CELLRANGE">
+                    <a:fld id="{6C9CB404-1D43-448E-82B4-39EBF79715D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3628,7 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FE8854F-7581-4C4A-91C8-DB8E4671E558}" type="CELLRANGE">
+                    <a:fld id="{9CA41544-5298-4C5B-9744-5AD0BD4D4AB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3662,7 +3662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7193D02-F8F2-44E9-8839-033FB583F68B}" type="CELLRANGE">
+                    <a:fld id="{38F8DEA5-32E1-4789-A340-5FBB483E7A73}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3696,7 +3696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{803A2A74-7A34-40D1-A27F-27FE04FBC5B0}" type="CELLRANGE">
+                    <a:fld id="{FA05DF82-598B-4811-9762-57122218BD7A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3730,7 +3730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09F7CF12-008E-4FB7-9966-677D3C351EA4}" type="CELLRANGE">
+                    <a:fld id="{CF9BC390-07F6-4BD8-9A8E-7A0203EA46D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3764,7 +3764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D9FD18F-5BBC-4CD2-921A-673A653EFC43}" type="CELLRANGE">
+                    <a:fld id="{FC695CE7-6F75-47EE-AE15-C3D70559A158}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3798,7 +3798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{096AD229-0BBB-4420-A2E3-99522902E3ED}" type="CELLRANGE">
+                    <a:fld id="{4C4287DA-EA56-4C87-8276-F1F50ED468DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3832,7 +3832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CAF5EBE-6927-4472-897A-F90AFDD50DE3}" type="CELLRANGE">
+                    <a:fld id="{5C17E8E1-F4D7-425E-B2EA-AFED43690796}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3866,7 +3866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92C80908-AFD5-44F9-B1DF-4E79B3CA1294}" type="CELLRANGE">
+                    <a:fld id="{511BE381-21BE-4E80-BDC4-3143D67B7A5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3900,7 +3900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8805320C-7DB4-477C-B375-4F162B748AFF}" type="CELLRANGE">
+                    <a:fld id="{6CA44C43-EE32-4E45-BF9B-7EC4A34D4C5B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3934,7 +3934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{434D5463-1470-4F0C-8057-13F9180FFDFF}" type="CELLRANGE">
+                    <a:fld id="{83776A08-E3B5-4C9D-BFA9-B9B6FCF2743F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3968,7 +3968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18AF079E-6C4D-45E3-96F5-C837215B12E1}" type="CELLRANGE">
+                    <a:fld id="{15FE76F8-4D08-4CBF-9EE6-8D2BA14420AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4002,7 +4002,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D48B81D-F01D-4799-ABF6-019550B49540}" type="CELLRANGE">
+                    <a:fld id="{C8F544A9-8613-496D-B9D3-15C3E2AE0D35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4036,7 +4036,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89EA26C3-4436-4DE4-9C43-F0B7E6BFE4FF}" type="CELLRANGE">
+                    <a:fld id="{5D05C290-ED0B-47C4-9106-0CEB7B82DDDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4070,7 +4070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2876E888-C23C-497C-BE86-8BB6A84DC074}" type="CELLRANGE">
+                    <a:fld id="{B76041D4-45FD-4E09-AA38-E3933577A5DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4104,7 +4104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB52E287-EE4B-4DA7-964A-7898870BE9D0}" type="CELLRANGE">
+                    <a:fld id="{03337D31-6E47-4B26-9F4F-0D3BF5062463}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4138,7 +4138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8396BBC4-0702-4D19-BE3F-4CCBDBCA8F34}" type="CELLRANGE">
+                    <a:fld id="{94E2156A-0C08-4FF4-A77B-E880109398DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4172,7 +4172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B31B3E4-D2E7-49BC-AC3B-AE3C59529A74}" type="CELLRANGE">
+                    <a:fld id="{E394D679-4B72-4D53-B349-177EAFD2299A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4206,7 +4206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F95F230D-32D7-488E-AAA1-2CCA03AE7960}" type="CELLRANGE">
+                    <a:fld id="{97886172-1B3A-4957-AFDD-EFB88A637586}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4240,7 +4240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEC5C259-0D8F-41C5-A892-A576B68E07F0}" type="CELLRANGE">
+                    <a:fld id="{40B21735-97F2-4E6E-A84A-FD4EE2A61A58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4274,7 +4274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B24DC508-F88F-48B7-A149-93243335B0A3}" type="CELLRANGE">
+                    <a:fld id="{7DBBD8D5-109B-424B-9033-D683775BD796}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4308,7 +4308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0B9C6F1-A29D-446A-B123-3B7BEC532265}" type="CELLRANGE">
+                    <a:fld id="{EFA9F55A-3EB7-4EF0-92DC-D611F8BCC57D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4342,7 +4342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39ABFA09-06B9-4442-B62D-54BD5A637F67}" type="CELLRANGE">
+                    <a:fld id="{B3D27CA6-226F-4A43-9F53-F931D114FEB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4376,7 +4376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03CBEBEF-2BD9-4CA8-AB96-98485C81CBB2}" type="CELLRANGE">
+                    <a:fld id="{3A00F6F4-B89D-4594-B014-850B094679C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4410,7 +4410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36F7118F-B76A-49C8-9567-FB846D7B7B02}" type="CELLRANGE">
+                    <a:fld id="{73662D2F-6A2C-4244-841E-D9547B815C6B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4444,7 +4444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE4DE360-28AA-45FE-84E2-086807700326}" type="CELLRANGE">
+                    <a:fld id="{1A24C983-5906-4197-AB27-D3B5B906FEAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4478,7 +4478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D00CAEE4-1C53-490D-8048-2DD3E677EE63}" type="CELLRANGE">
+                    <a:fld id="{1E2DAF6F-3172-4C3D-8691-576ADE01272B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4512,7 +4512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6265FC2F-0CE0-454D-B98D-A48EA4B2017B}" type="CELLRANGE">
+                    <a:fld id="{6D9CDD49-C47B-43AD-B05D-7966F4F676F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4546,7 +4546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CECACD9-86F9-4093-BBCA-14BB5B1245F4}" type="CELLRANGE">
+                    <a:fld id="{CEFCDC59-8FDE-4690-AAD8-358E7D1A23F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4580,7 +4580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C252A75C-6326-4EC3-9D79-F98BED37109D}" type="CELLRANGE">
+                    <a:fld id="{53D5CE3E-C642-4335-9792-5CECD3254496}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4614,7 +4614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B521BC9B-5277-4E67-AB65-DC83C1AB0BBF}" type="CELLRANGE">
+                    <a:fld id="{A90B11FF-34BF-410B-A27F-FA7438F630CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4648,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB3A7709-885C-491D-A5DA-17069ECBD928}" type="CELLRANGE">
+                    <a:fld id="{79DE3F6A-A073-4FF2-A8FD-3874B41BE055}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4682,7 +4682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B691D7A6-AB34-4499-8C3A-8A7FF5074BAE}" type="CELLRANGE">
+                    <a:fld id="{C121F9D7-912C-4B17-B1D7-6C4604533081}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4716,7 +4716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5491344-4C58-4414-A04C-6A50ED34076C}" type="CELLRANGE">
+                    <a:fld id="{44B5F941-BFD1-402D-ADB4-D3338FB72812}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4750,7 +4750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93D34B82-053C-4D33-BA22-ACA6657B570E}" type="CELLRANGE">
+                    <a:fld id="{8268C8C9-1B4A-49F9-970A-7268392F7EF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4784,7 +4784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8AA7485-EE6F-4F86-B9FC-D296AAC4CD1A}" type="CELLRANGE">
+                    <a:fld id="{19242DEE-1962-4C74-8516-A1362A57F815}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8417,13 +8417,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>784412</xdr:colOff>
+      <xdr:colOff>771274</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>784414</xdr:colOff>
+      <xdr:colOff>771276</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8759,7 +8759,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F346A-C659-4CD6-9A7D-9B4AB147EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D5D0E8-936D-404B-B01B-36170F849A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,6 +218,3047 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.16586523545515736"/>
+          <c:y val="0.21301105577476911"/>
+          <c:w val="0.76964901667763652"/>
+          <c:h val="8.3198869372097722E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Datenreihe 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FDF52222-C574-47E9-B1DB-A4AEC4A6A5C1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B71EE599-47E5-4F67-A812-30A324C89269}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{16775A6D-FB32-4208-A72A-09DF122DE8B6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{353F2DF5-1E04-4792-BB6E-86680FA2643A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AFE99719-347A-42E4-BA2F-4D7DDC0A0096}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC69E68A-E4D0-4D6D-B7D5-D5FD268C4190}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{848F416D-F4F5-4D4E-BD56-F16D0C071ABF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4A191D6-82FB-4C1A-AB15-E785521935F1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A676AA33-6300-48D7-AC69-3DF215A9C2F0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7590BA19-054C-4B7C-BAA4-E8D385FD4EA0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9F868A8F-1678-4400-943B-DF7134D1E019}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{84D56CB0-2E08-4915-B38D-12AD7C9394B8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ADD84C2A-453C-405F-9047-976326DA3D3E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C8F72F08-1603-4B1D-AD40-6D9D798234AA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6706F9C2-D677-41E9-A9FF-46CADC8489BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A98957A5-8F56-4193-87DA-65570AD3710E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{519EB3E8-F555-4D13-9E99-F78F85D40A83}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{36E38AB6-171B-4224-A858-A84CD56479B9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8DFE9CFC-287F-4E84-ABC4-86617DC48CAD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{732E6C10-92D0-4C7F-A990-388C8228E317}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4193FFC5-6D3B-46CC-A56A-6B8D9AD6569B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DFFBBDAA-F948-4F90-A6A6-441DD805D7C8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8598C4F0-AA7D-429B-B1E6-54560A78303B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D060FDDF-A944-4A31-8452-CAC6E760F42E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4CFA519F-2D0E-4218-A6AD-9644779B14EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B2E31CC9-6F58-4F1A-9D0A-71430AB5CA11}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{57379858-8A35-49DD-92D0-DEFEA294CE30}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{41D1420E-FB0B-4539-9F3F-9F4719462327}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{67B91F7F-6768-40CA-846B-34295BF80FD6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{75485921-08DA-45F8-B8A8-51A2A75D2DE0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{22EB36BE-0C65-4DEB-985E-8DC62586056F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{20779789-DC67-480B-A192-E12A516B8810}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3C3EA14-477B-4D2C-B73C-5D198353F946}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{41032C87-8C83-4ABA-8690-2B4B9340041C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EDA92560-C465-492E-8B7E-09DED333096E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E8091A4A-E003-4EB0-BBA2-81032E732914}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{15669B16-1EFD-4795-BE57-3BF36EC942C5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B76F8D36-5FE5-4B31-9584-B823BA2674DA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85C2F546-61F2-4640-BD24-EE15A6A0D68C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4E8D7DBE-682E-4A6B-9227-26D92C085C02}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6BB4A60D-F5BB-40CD-B0A8-537C0683E0E2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{16410EB1-DE3F-496F-B454-9A7F830345FB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3ED92ED2-0B47-4886-8022-19D253C5666C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0CC1924E-4F1D-4539-9742-722B4A898AED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF769A74-2C42-4F7B-9651-0400B9A00947}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{502ED9F0-F544-43D6-8050-02EFCE067CE0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C9991497-20BC-4198-A0EF-ECE8F0F93530}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6E4C371-1A47-4694-93D2-4820CAC47D61}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EC73F73E-C3C7-4FDC-A5A7-49A11271D71F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B98F4D25-33D6-4C3D-9AA8-50FF87E8AB0D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C1AB70E9-4BB2-435C-BA54-FA1315748F8C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E0852D9D-E001-4CDD-8B1C-9D333334B879}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{116A60B5-4DD5-41FA-85DF-6B67234BBF51}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E30F01A4-BD99-491D-963B-A2CABAEC0885}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E14550B-2DAA-42CE-AE74-301011B4BD47}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{260BEC06-E6AB-4C3C-87D3-3F68897A1A9F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{64B13FEC-749C-4FDB-9F25-0D5CDA50BF21}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8DCBD9E5-FE91-43A5-82C0-7ECD1E83F892}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD6E1270-E6F9-4A77-BA93-265311A647C0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B808E4F5-4EE5-4544-9B86-2941C473EB13}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA3A8398-6C19-4B67-B5E9-3B80E1E1FF4F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C116B72-6013-43EA-9F08-CF15541378A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F49435FC-300F-4D10-882F-E1D5E969CCE3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D60CDA6C-3E6E-4D5C-BCF4-9C3E3066B9BA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45110</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Kalenderwoche!$B:$B</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1048576"/>
+                  <c:pt idx="0">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>32</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592549576"/>
+        <c:axId val="592543672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592549576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45145"/>
+          <c:min val="44704"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592543672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592543672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592549576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
+</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.15389110151355403"/>
           <c:y val="0.26935721737142204"/>
           <c:w val="0.76880987199768602"/>
@@ -534,7 +3575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E23C673-F636-43E4-B1F3-0ADF01D8A8E9}" type="CELLRANGE">
+                    <a:fld id="{6DBEFCE4-CDC6-438D-91AE-4B9BEDEFDB3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -567,7 +3608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F621CB94-649C-4DB0-B373-E2A625C9740C}" type="CELLRANGE">
+                    <a:fld id="{70506940-6355-49B8-9788-CC29D9B5AB32}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -600,7 +3641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{508F749E-9580-45EB-A68E-638DFB6068DB}" type="CELLRANGE">
+                    <a:fld id="{748580CF-4B2C-4C45-ACB1-DE9134830A08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -659,7 +3700,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86E9F316-8631-42C8-A7C9-E6D45E4BCD78}" type="CELLRANGE">
+                    <a:fld id="{4A957AD0-000D-42FF-82A2-56C2501D5800}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -718,7 +3759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FFF8F5B-2B88-4E33-B57A-3BE6C2F457EA}" type="CELLRANGE">
+                    <a:fld id="{AD7F38BF-4AC8-4F50-81F7-D474F03A794C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -777,7 +3818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C2C0E83-3060-40AA-91A8-358834A2E8EA}" type="CELLRANGE">
+                    <a:fld id="{1DC9FC71-3378-4767-AABC-598371D26775}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -836,7 +3877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7CB976B-1E1A-4A88-9084-F907E656DF8A}" type="CELLRANGE">
+                    <a:fld id="{2C7D1FC1-B098-4924-8339-74D3AFFFE14C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1054,7 +4095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5CAFD20-F9A8-498D-8B42-B03B6A7CBF41}" type="CELLRANGE">
+                    <a:fld id="{DCFD775E-76C5-43CD-9F14-E01CD23FE93E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1088,7 +4129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CC90A40-C892-409D-AA0C-DB927DA863C2}" type="CELLRANGE">
+                    <a:fld id="{96795BB3-6127-480C-8DF4-265AD9FE0895}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1122,7 +4163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B4264A1-E7D8-496C-AFE9-47637058255E}" type="CELLRANGE">
+                    <a:fld id="{3781D014-BAF8-45CF-9C28-06AA0A044163}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1189,7 +4230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7983CBD-A596-4B10-8565-C6638EEFC909}" type="CELLRANGE">
+                    <a:fld id="{DC55BD89-F067-473B-9829-41AAA9039535}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1307,7 +4348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98BFF9D2-39E1-47AB-90F2-3B015EA905FA}" type="CELLRANGE">
+                    <a:fld id="{67C56AF3-1DD5-4072-9F33-919866EBB993}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1368,7 +4409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F20CA4F-FCD5-472F-A1A8-551217142B08}" type="CELLRANGE">
+                    <a:fld id="{1905ABE5-2421-4928-8B19-2C262BF1246A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1955,7 +4996,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2024,7 +5065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3523E1C-A957-42AB-8039-13186F55AE27}" type="CELLRANGE">
+                    <a:fld id="{D291B3F0-E5E4-47BC-B615-AF38BAE11A58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2033,7 +5074,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{22EEB72A-6336-4BD6-ACB4-D9CD0F87BF37}" type="SERIESNAME">
+                    <a:fld id="{B0A2A705-5CC6-431B-89EA-2B7470D1BA6A}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[DATENREIHENNAME]</a:t>
@@ -2114,7 +5155,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2572,3047 +5613,6 @@
     </c:headerFooter>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16586523545515736"/>
-          <c:y val="0.21301105577476911"/>
-          <c:w val="0.76964901667763652"/>
-          <c:h val="8.3198869372097722E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Datenreihe 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3595EED2-9EA9-4340-A0C6-7AAE9E8F1925}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BDEA97BC-C960-4FA5-A46F-0F673292E02F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BC92BF1A-2FB0-4BDA-B281-DF48F0EC1076}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{946D7EDC-2A35-476A-82AF-8FC436F8089B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A39266E5-B7C0-4EBA-97E6-6842B6898FF2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{10EBD4F3-2831-40EB-8C71-D382150CB5CC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E6E4E67E-B091-4CB1-972E-1BD497EED1D5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{561DBB23-CEE9-44D4-9965-D876A783F438}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{02C7BC7C-4E0A-49FD-A09F-49CC1E544631}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E54A170B-CBBD-4FB6-8026-65840EF93350}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AA4E19FD-0BD0-43C2-9BAE-740A0CDD5164}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EAEF6321-83BE-4613-ADC1-731C3EFE9CC2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FA915E27-3FB5-44F2-9FE5-7D951E287211}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0DD8BCFA-0106-4734-8302-7A32B2253823}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6C827A2E-EFC9-4088-AA4D-A97DAF6C2374}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7DE10E28-D77E-4822-869E-7740BDC8F86C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9290635C-3F8F-433F-B8CD-F387CEA787BE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{185C30A6-6805-42A8-840F-3504D43ABE08}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3EE74887-62D9-436F-B95A-0D3C41341687}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A0EAEEC8-7B9D-4151-B065-472F81515AE4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{77BC5C4C-3C1A-4AC8-9107-78E684956729}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{20973CBF-2552-4F43-BAA1-45688A543CB8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E5E6A71C-6DAB-4CF9-838B-5464FB03002B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{11A4EE99-B75C-4DFE-B795-5A7F7B4D55EA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BD1B9C22-2FDB-4B03-B00E-4F82935A609D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F70BF252-3530-4622-BDF0-818E56FA3C9F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{39E91627-B28B-4B8E-85CE-940931316BAF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{462B9B84-4672-405F-8843-528CF86410C8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6C9CB404-1D43-448E-82B4-39EBF79715D6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9CA41544-5298-4C5B-9744-5AD0BD4D4AB1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{38F8DEA5-32E1-4789-A340-5FBB483E7A73}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FA05DF82-598B-4811-9762-57122218BD7A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CF9BC390-07F6-4BD8-9A8E-7A0203EA46D2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FC695CE7-6F75-47EE-AE15-C3D70559A158}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4C4287DA-EA56-4C87-8276-F1F50ED468DC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5C17E8E1-F4D7-425E-B2EA-AFED43690796}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{511BE381-21BE-4E80-BDC4-3143D67B7A5E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6CA44C43-EE32-4E45-BF9B-7EC4A34D4C5B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{83776A08-E3B5-4C9D-BFA9-B9B6FCF2743F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{15FE76F8-4D08-4CBF-9EE6-8D2BA14420AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C8F544A9-8613-496D-B9D3-15C3E2AE0D35}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5D05C290-ED0B-47C4-9106-0CEB7B82DDDD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B76041D4-45FD-4E09-AA38-E3933577A5DE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{03337D31-6E47-4B26-9F4F-0D3BF5062463}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{94E2156A-0C08-4FF4-A77B-E880109398DC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E394D679-4B72-4D53-B349-177EAFD2299A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{97886172-1B3A-4957-AFDD-EFB88A637586}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{40B21735-97F2-4E6E-A84A-FD4EE2A61A58}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7DBBD8D5-109B-424B-9033-D683775BD796}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EFA9F55A-3EB7-4EF0-92DC-D611F8BCC57D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B3D27CA6-226F-4A43-9F53-F931D114FEB0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3A00F6F4-B89D-4594-B014-850B094679C9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{73662D2F-6A2C-4244-841E-D9547B815C6B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1A24C983-5906-4197-AB27-D3B5B906FEAA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1E2DAF6F-3172-4C3D-8691-576ADE01272B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6D9CDD49-C47B-43AD-B05D-7966F4F676F9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="56"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CEFCDC59-8FDE-4690-AAD8-358E7D1A23F7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="57"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{53D5CE3E-C642-4335-9792-5CECD3254496}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="58"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A90B11FF-34BF-410B-A27F-FA7438F630CA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="59"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{79DE3F6A-A073-4FF2-A8FD-3874B41BE055}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="60"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C121F9D7-912C-4B17-B1D7-6C4604533081}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="61"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{44B5F941-BFD1-402D-ADB4-D3338FB72812}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="62"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8268C8C9-1B4A-49F9-970A-7268392F7EF6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="63"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{19242DEE-1962-4C74-8516-A1362A57F815}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44809</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44844</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44851</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44858</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44872</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44879</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44886</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44893</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44907</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44921</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44949</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44956</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44963</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44970</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44977</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44984</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44991</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45012</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45019</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45026</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45033</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45040</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45047</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45054</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45061</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45068</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45075</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45082</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45089</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45096</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45103</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45110</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45117</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45124</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45131</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45138</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Kalenderwoche!$B:$B</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>51</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>52</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>32</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="592549576"/>
-        <c:axId val="592543672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="592549576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45145"/>
-          <c:min val="44704"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592543672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="7"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="592543672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592549576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter>
-      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
-</c:oddHeader>
-    </c:headerFooter>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6815,6 +6815,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7287,509 +7790,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8342,6 +8342,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771276</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Calendar Week">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -8372,7 +8410,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8401,44 +8439,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>771274</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>771276</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Calendar Week">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8759,7 +8759,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Excel_GanttFile.xlsx
+++ b/Excel_GanttFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D5D0E8-936D-404B-B01B-36170F849A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9AE67-A521-48D6-92FD-170A8B2B8E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,3047 +218,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16586523545515736"/>
-          <c:y val="0.21301105577476911"/>
-          <c:w val="0.76964901667763652"/>
-          <c:h val="8.3198869372097722E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Datenreihe 1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FDF52222-C574-47E9-B1DB-A4AEC4A6A5C1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B71EE599-47E5-4F67-A812-30A324C89269}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{16775A6D-FB32-4208-A72A-09DF122DE8B6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{353F2DF5-1E04-4792-BB6E-86680FA2643A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AFE99719-347A-42E4-BA2F-4D7DDC0A0096}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BC69E68A-E4D0-4D6D-B7D5-D5FD268C4190}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{848F416D-F4F5-4D4E-BD56-F16D0C071ABF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C4A191D6-82FB-4C1A-AB15-E785521935F1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A676AA33-6300-48D7-AC69-3DF215A9C2F0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7590BA19-054C-4B7C-BAA4-E8D385FD4EA0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9F868A8F-1678-4400-943B-DF7134D1E019}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{84D56CB0-2E08-4915-B38D-12AD7C9394B8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ADD84C2A-453C-405F-9047-976326DA3D3E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C8F72F08-1603-4B1D-AD40-6D9D798234AA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6706F9C2-D677-41E9-A9FF-46CADC8489BE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A98957A5-8F56-4193-87DA-65570AD3710E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{519EB3E8-F555-4D13-9E99-F78F85D40A83}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{36E38AB6-171B-4224-A858-A84CD56479B9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8DFE9CFC-287F-4E84-ABC4-86617DC48CAD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{732E6C10-92D0-4C7F-A990-388C8228E317}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4193FFC5-6D3B-46CC-A56A-6B8D9AD6569B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DFFBBDAA-F948-4F90-A6A6-441DD805D7C8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8598C4F0-AA7D-429B-B1E6-54560A78303B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D060FDDF-A944-4A31-8452-CAC6E760F42E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4CFA519F-2D0E-4218-A6AD-9644779B14EE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B2E31CC9-6F58-4F1A-9D0A-71430AB5CA11}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{57379858-8A35-49DD-92D0-DEFEA294CE30}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{41D1420E-FB0B-4539-9F3F-9F4719462327}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{67B91F7F-6768-40CA-846B-34295BF80FD6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{75485921-08DA-45F8-B8A8-51A2A75D2DE0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{22EB36BE-0C65-4DEB-985E-8DC62586056F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{20779789-DC67-480B-A192-E12A516B8810}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D3C3EA14-477B-4D2C-B73C-5D198353F946}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{41032C87-8C83-4ABA-8690-2B4B9340041C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EDA92560-C465-492E-8B7E-09DED333096E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E8091A4A-E003-4EB0-BBA2-81032E732914}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{15669B16-1EFD-4795-BE57-3BF36EC942C5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B76F8D36-5FE5-4B31-9584-B823BA2674DA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{85C2F546-61F2-4640-BD24-EE15A6A0D68C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4E8D7DBE-682E-4A6B-9227-26D92C085C02}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6BB4A60D-F5BB-40CD-B0A8-537C0683E0E2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{16410EB1-DE3F-496F-B454-9A7F830345FB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3ED92ED2-0B47-4886-8022-19D253C5666C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0CC1924E-4F1D-4539-9742-722B4A898AED}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FF769A74-2C42-4F7B-9651-0400B9A00947}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{502ED9F0-F544-43D6-8050-02EFCE067CE0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C9991497-20BC-4198-A0EF-ECE8F0F93530}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A6E4C371-1A47-4694-93D2-4820CAC47D61}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EC73F73E-C3C7-4FDC-A5A7-49A11271D71F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B98F4D25-33D6-4C3D-9AA8-50FF87E8AB0D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C1AB70E9-4BB2-435C-BA54-FA1315748F8C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E0852D9D-E001-4CDD-8B1C-9D333334B879}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{116A60B5-4DD5-41FA-85DF-6B67234BBF51}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E30F01A4-BD99-491D-963B-A2CABAEC0885}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6E14550B-2DAA-42CE-AE74-301011B4BD47}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{260BEC06-E6AB-4C3C-87D3-3F68897A1A9F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="56"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{64B13FEC-749C-4FDB-9F25-0D5CDA50BF21}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="57"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8DCBD9E5-FE91-43A5-82C0-7ECD1E83F892}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="58"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BD6E1270-E6F9-4A77-BA93-265311A647C0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="59"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B808E4F5-4EE5-4544-9B86-2941C473EB13}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="60"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FA3A8398-6C19-4B67-B5E9-3B80E1E1FF4F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="61"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9C116B72-6013-43EA-9F08-CF15541378A0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="62"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F49435FC-300F-4D10-882F-E1D5E969CCE3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="63"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D60CDA6C-3E6E-4D5C-BCF4-9C3E3066B9BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>44704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44711</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44718</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44739</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44760</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44788</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44795</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44802</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44809</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44816</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44823</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44830</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44844</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44851</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44858</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44872</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44879</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44886</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44893</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44907</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44914</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44921</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44949</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44956</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44963</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44970</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44977</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44984</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44991</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45012</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45019</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45026</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45033</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45040</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45047</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45054</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45061</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45068</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>45075</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45082</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45089</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45096</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45103</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45110</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45117</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45124</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>45131</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45138</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Kalenderwoche!$B:$B</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="1048576"/>
-                  <c:pt idx="0">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>33</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>34</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>35</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>36</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>37</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>38</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>39</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>40</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>41</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>42</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>43</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>44</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>45</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>46</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>47</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>48</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>49</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>51</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>52</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>22</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>24</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>25</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>26</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>27</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>28</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>30</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>31</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>32</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="592549576"/>
-        <c:axId val="592543672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="592549576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45145"/>
-          <c:min val="44704"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592543672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="7"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="592543672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:noFill/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="592549576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter>
-      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
-</c:oddHeader>
-    </c:headerFooter>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.15389110151355403"/>
           <c:y val="0.26935721737142204"/>
           <c:w val="0.76880987199768602"/>
@@ -3575,7 +534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DBEFCE4-CDC6-438D-91AE-4B9BEDEFDB3B}" type="CELLRANGE">
+                    <a:fld id="{75BBEC86-5097-42A4-BA96-FBCDCC2582C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3608,7 +567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70506940-6355-49B8-9788-CC29D9B5AB32}" type="CELLRANGE">
+                    <a:fld id="{A6B4F359-0B95-4929-8F40-A6E96DD8192D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3641,7 +600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{748580CF-4B2C-4C45-ACB1-DE9134830A08}" type="CELLRANGE">
+                    <a:fld id="{719ADD77-50AC-4CA5-9FE1-D115AE040E3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3700,7 +659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A957AD0-000D-42FF-82A2-56C2501D5800}" type="CELLRANGE">
+                    <a:fld id="{5B68A6F0-B975-43C2-80D5-53274B48BEFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3759,7 +718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD7F38BF-4AC8-4F50-81F7-D474F03A794C}" type="CELLRANGE">
+                    <a:fld id="{9F22B099-A9F0-4AE7-8B0C-F99E5EA53E5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3818,7 +777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DC9FC71-3378-4767-AABC-598371D26775}" type="CELLRANGE">
+                    <a:fld id="{AE70D172-249E-48AB-AC79-DC0C51A420CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3877,7 +836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C7D1FC1-B098-4924-8339-74D3AFFFE14C}" type="CELLRANGE">
+                    <a:fld id="{BBC51025-1173-4BBD-82D4-DDCC21255B2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4095,7 +1054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCFD775E-76C5-43CD-9F14-E01CD23FE93E}" type="CELLRANGE">
+                    <a:fld id="{5302D027-EE66-4B3C-8F39-17CB7BA7DD89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4129,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96795BB3-6127-480C-8DF4-265AD9FE0895}" type="CELLRANGE">
+                    <a:fld id="{ADD7A793-851D-4B32-B0BE-616FF4352CA4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4163,7 +1122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3781D014-BAF8-45CF-9C28-06AA0A044163}" type="CELLRANGE">
+                    <a:fld id="{A5E9D7E5-D586-4862-B44D-7771A36B8C88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4230,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC55BD89-F067-473B-9829-41AAA9039535}" type="CELLRANGE">
+                    <a:fld id="{EE008617-BA31-426B-900A-8B0F2FAB0867}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4348,7 +1307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67C56AF3-1DD5-4072-9F33-919866EBB993}" type="CELLRANGE">
+                    <a:fld id="{6BD53572-1A7E-41FF-A168-888877AAEC31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4409,7 +1368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1905ABE5-2421-4928-8B19-2C262BF1246A}" type="CELLRANGE">
+                    <a:fld id="{0CCA3BCB-88DB-4325-BB60-E39B1F750CC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4996,7 +1955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5065,7 +2024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D291B3F0-E5E4-47BC-B615-AF38BAE11A58}" type="CELLRANGE">
+                    <a:fld id="{44947D43-228A-478A-B97A-F4F46A85C8C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5074,7 +2033,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{B0A2A705-5CC6-431B-89EA-2B7470D1BA6A}" type="SERIESNAME">
+                    <a:fld id="{272A3CF8-FCBB-40E4-B674-85F8569A4E93}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[DATENREIHENNAME]</a:t>
@@ -5225,7 +2184,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44708</c:v>
+                  <c:v>44709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5250,7 +2209,7 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>27.05.2022</c:v>
+                    <c:v>28.05.2022</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5613,6 +2572,3047 @@
     </c:headerFooter>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16586523545515736"/>
+          <c:y val="0.21301105577476911"/>
+          <c:w val="0.76964901667763652"/>
+          <c:h val="8.3198869372097722E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Datenreihe 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4DFC9686-D477-4DAF-8D09-F5F746594774}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB74EB0B-BBEF-42C0-8971-2AC60836E6EA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{247476F5-ABD6-46DD-B34A-8AB3C63DE58C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6869451-32BF-4365-8662-2669FB0BAAD4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B868931D-95C9-42B5-967C-E114BC7566B8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6084BBFD-8AE0-40F5-B0A4-1166E36FC81A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CABA4388-EC6F-4F72-B343-2B6ADD6A8D24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{497F8546-7ACC-4F22-A285-FB8632451B06}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FD4120BD-C670-4945-918F-DC24923D500F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AE1B4C0F-F20C-4B81-B307-55D5CAC1A15A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9F2065CA-A212-4D86-BEBB-C06CBE36D467}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E57CE83D-9ECF-40CE-B54C-0B2B720EA30C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0BCF04A2-42D2-41FA-8B79-21A5188767DE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3021DEDE-578D-4974-9D8D-4974748CA890}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E60FFCF-104E-4F57-A5BC-4E3E54FDEC19}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{96B02A2A-FD28-4B39-86D2-7EDE917F3422}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E223BFD0-BC29-444D-9D3F-2B5646AB4BC5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{15E68630-2518-4810-AD60-4DBE2F826706}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{94090D2F-5458-45C0-B834-5586F919189F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4FCF258F-48DA-4B5D-902C-4BECF2D7043F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7A3D9786-611B-4641-9BC1-CAAA70CCB351}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5DB43910-B411-47AE-AEA2-F8DA36B00971}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{935C2653-0776-44F0-B4B9-FBF34E64AAC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C544FD0B-7FB8-432C-BA78-5515592ABC74}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8F007182-5AC2-4717-8E49-D4788FC31C71}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B1378C2-99EA-4F38-9578-5D4FD4B0B321}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C5AE1F8B-7094-47B3-85E4-E9D4538A5845}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9298C0F8-8060-4735-BDE1-1DBE4D27D5E2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{73F44E80-F092-40C9-B5CF-3E184132CE6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{13BFFF93-6241-4F6A-B423-01A11201725D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8696F8A7-AFD7-4444-A8FC-2B0E4DDC3151}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{34B29FEF-5C01-4464-A4CE-EB8B98F7C348}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{68A224B0-0F7E-4C3C-97A6-696A3B55FDC6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{603E9CB4-4D8C-4700-948F-E3CE16DE162D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1AE20FAC-6554-4DF4-BE1F-4A15A5CF6305}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8749E2E8-013F-4E22-BA1B-9C3A0AC4FBEE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B721250-8B01-4B48-8D11-30D0FA114DB5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{80921580-6A48-4088-AC89-182B3042A753}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F575F332-D619-431C-B53E-426994302EAD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{834F0B5A-32E7-4AA8-84F8-FE4044577536}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{71D1EF1A-7AB7-4F24-B392-78E2C6F65241}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3BE2F15E-16B2-4A0F-B508-28662F6771D1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A817DB65-FD6F-4480-BC03-B9D048F215AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FDB279BE-1873-4F20-9A08-780AB678D0C5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{022C454E-3264-41AF-854F-F49294C20746}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{12E814D7-3C15-42EB-9D5C-4DB110276AD7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9B1862A2-098A-4829-A0B7-7513B5EC91F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1FF48C16-644D-49E0-8C62-CF7AE060893E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{47DAA562-2795-488F-8A09-62AA58FB465C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5C90F2FD-7071-4558-B89F-F3368E760796}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9D7CFB3-DB67-4AF1-A01B-3BCD7B0D4186}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{46C8D395-C37B-4636-85C2-55E64B7E66A4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC910E9B-AAEF-4FA8-A404-B65263B9B5C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1B6E018B-7348-4267-ABEE-F374ED44A201}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F715714D-22AD-4460-9CE6-87A45B029741}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{568616A2-A6C3-44C8-9D3E-8877D8F530F4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{06FDD960-34F0-4702-B396-7868CA061C4A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{152C2335-16A1-4690-8593-1E9A1DF80DEA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BBB37125-C5CF-429E-842D-824684C4A8B2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E88187D0-0639-4BA7-87FF-2135B089021F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{443E5B2D-BBA5-44AB-9ECA-211D6974775A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0763C491-C0CC-4635-8F61-6F6BB20E8AC5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{56EBA7C9-B09C-411E-9484-128D4B2776CC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C35E060-49F2-46ED-BB9D-104F282E4E3D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-623C-49DD-8F31-9A200A80629D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$A$1:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45110</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kalenderwoche!$C$1:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Kalenderwoche!$B:$B</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1048576"/>
+                  <c:pt idx="0">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>32</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-623C-49DD-8F31-9A200A80629D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592549576"/>
+        <c:axId val="592543672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592549576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45145"/>
+          <c:min val="44704"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592543672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592543672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592549576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;LCD391E ICA MY2019.50&amp;ZSEDAN REAR LAMP PDP&amp;R
+</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6815,509 +6815,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7790,6 +7287,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8342,44 +8342,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>771274</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>771276</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Calendar Week">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -8410,7 +8372,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8439,6 +8401,44 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771276</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Calendar Week">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="C2" s="4">
         <v>100</v>
